--- a/git-terminal-keyboard-shortcuts.xlsx
+++ b/git-terminal-keyboard-shortcuts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Smith/GIT/git-keyboard-shortcuts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9E14D61-25DA-7042-AC95-5113D5A442F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1306629C-44E8-5A4E-BE54-1723B9C9B142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="0" windowWidth="33180" windowHeight="28800" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
+    <workbookView xWindow="55820" yWindow="0" windowWidth="33180" windowHeight="28800" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8272,9 +8272,9 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8594,8 +8594,8 @@
   </sheetPr>
   <dimension ref="A1:F349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="212" zoomScaleNormal="210" zoomScaleSheetLayoutView="33" workbookViewId="0">
-      <selection activeCell="C283" sqref="C283"/>
+    <sheetView tabSelected="1" topLeftCell="A261" zoomScale="212" zoomScaleNormal="210" zoomScaleSheetLayoutView="33" workbookViewId="0">
+      <selection activeCell="C260" sqref="C260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8672,14 +8672,14 @@
       <c r="A8" s="21"/>
     </row>
     <row r="9" spans="1:6" ht="27" thickBot="1">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="1" t="s">
@@ -8701,14 +8701,14 @@
       <c r="A12" s="21"/>
     </row>
     <row r="13" spans="1:6" ht="27" thickBot="1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="10" t="s">
@@ -8859,14 +8859,14 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="27" thickBot="1">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6">
       <c r="C27" s="1" t="s">
@@ -8992,14 +8992,14 @@
       <c r="A42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="27" thickBot="1">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="27"/>
     </row>
     <row r="44" spans="1:6">
       <c r="C44" s="1" t="s">
@@ -9074,14 +9074,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="27" thickBot="1">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
     </row>
     <row r="55" spans="1:6">
       <c r="C55" s="1" t="s">
@@ -9411,14 +9411,14 @@
       <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:6" ht="27" thickBot="1">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="26"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="27"/>
     </row>
     <row r="89" spans="1:6">
       <c r="C89" s="1" t="s">
@@ -10109,7 +10109,7 @@
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="C143" s="27" t="s">
+      <c r="C143" s="25" t="s">
         <v>366</v>
       </c>
       <c r="D143" s="14" t="s">
@@ -10210,14 +10210,14 @@
       <c r="C150" s="3"/>
     </row>
     <row r="151" spans="1:6" ht="27" thickBot="1">
-      <c r="A151" s="25" t="s">
+      <c r="A151" s="26" t="s">
         <v>524</v>
       </c>
-      <c r="B151" s="25"/>
-      <c r="C151" s="25"/>
-      <c r="D151" s="25"/>
-      <c r="E151" s="25"/>
-      <c r="F151" s="25"/>
+      <c r="B151" s="26"/>
+      <c r="C151" s="26"/>
+      <c r="D151" s="26"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="26"/>
     </row>
     <row r="152" spans="1:6">
       <c r="C152" s="8" t="s">
@@ -10277,7 +10277,7 @@
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="C160" s="27" t="s">
+      <c r="C160" s="25" t="s">
         <v>509</v>
       </c>
       <c r="D160" s="14" t="s">
@@ -10605,7 +10605,7 @@
       <c r="C185" s="8"/>
     </row>
     <row r="186" spans="1:6">
-      <c r="C186" s="27" t="s">
+      <c r="C186" s="25" t="s">
         <v>228</v>
       </c>
       <c r="D186" s="14" t="s">
@@ -10735,14 +10735,14 @@
       </c>
     </row>
     <row r="196" spans="1:6" ht="27" thickBot="1">
-      <c r="A196" s="25" t="s">
+      <c r="A196" s="26" t="s">
         <v>525</v>
       </c>
-      <c r="B196" s="25"/>
-      <c r="C196" s="25"/>
-      <c r="D196" s="25"/>
-      <c r="E196" s="25"/>
-      <c r="F196" s="26"/>
+      <c r="B196" s="26"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="26"/>
+      <c r="E196" s="26"/>
+      <c r="F196" s="27"/>
     </row>
     <row r="197" spans="1:6">
       <c r="C197" s="1" t="s">
@@ -11007,14 +11007,14 @@
       <c r="C219" s="2"/>
     </row>
     <row r="221" spans="1:6" ht="27" thickBot="1">
-      <c r="A221" s="25" t="s">
+      <c r="A221" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B221" s="25"/>
-      <c r="C221" s="25"/>
-      <c r="D221" s="25"/>
-      <c r="E221" s="25"/>
-      <c r="F221" s="26"/>
+      <c r="B221" s="26"/>
+      <c r="C221" s="26"/>
+      <c r="D221" s="26"/>
+      <c r="E221" s="26"/>
+      <c r="F221" s="27"/>
     </row>
     <row r="224" spans="1:6">
       <c r="C224" s="1" t="s">
@@ -11541,14 +11541,14 @@
       </c>
     </row>
     <row r="268" spans="1:6" ht="27" thickBot="1">
-      <c r="A268" s="25" t="s">
+      <c r="A268" s="26" t="s">
         <v>526</v>
       </c>
-      <c r="B268" s="25"/>
-      <c r="C268" s="25"/>
-      <c r="D268" s="25"/>
-      <c r="E268" s="25"/>
-      <c r="F268" s="26"/>
+      <c r="B268" s="26"/>
+      <c r="C268" s="26"/>
+      <c r="D268" s="26"/>
+      <c r="E268" s="26"/>
+      <c r="F268" s="27"/>
     </row>
     <row r="269" spans="1:6">
       <c r="C269" s="1" t="s">
@@ -11970,14 +11970,14 @@
       </c>
     </row>
     <row r="312" spans="1:6" ht="27" thickBot="1">
-      <c r="A312" s="25" t="s">
+      <c r="A312" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="B312" s="25"/>
-      <c r="C312" s="25"/>
-      <c r="D312" s="25"/>
-      <c r="E312" s="25"/>
-      <c r="F312" s="26"/>
+      <c r="B312" s="26"/>
+      <c r="C312" s="26"/>
+      <c r="D312" s="26"/>
+      <c r="E312" s="26"/>
+      <c r="F312" s="27"/>
     </row>
     <row r="313" spans="1:6">
       <c r="C313" s="1" t="s">
@@ -12111,14 +12111,14 @@
       </c>
     </row>
     <row r="333" spans="1:6" ht="27" thickBot="1">
-      <c r="A333" s="25" t="s">
+      <c r="A333" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="B333" s="25"/>
-      <c r="C333" s="25"/>
-      <c r="D333" s="25"/>
-      <c r="E333" s="25"/>
-      <c r="F333" s="26"/>
+      <c r="B333" s="26"/>
+      <c r="C333" s="26"/>
+      <c r="D333" s="26"/>
+      <c r="E333" s="26"/>
+      <c r="F333" s="27"/>
     </row>
     <row r="335" spans="1:6">
       <c r="C335" s="1" t="s">
@@ -12302,11 +12302,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A333:F333"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A26:F26"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A312:F312"/>
     <mergeCell ref="A268:F268"/>
@@ -12314,6 +12309,11 @@
     <mergeCell ref="A196:F196"/>
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="A151:F151"/>
+    <mergeCell ref="A333:F333"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A26:F26"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/git-terminal-keyboard-shortcuts.xlsx
+++ b/git-terminal-keyboard-shortcuts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Smith/GIT/git-keyboard-shortcuts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1306629C-44E8-5A4E-BE54-1723B9C9B142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1518D36-518F-B946-A4DC-9682963E13E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="55820" yWindow="0" windowWidth="33180" windowHeight="28800" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
   </bookViews>
@@ -12302,6 +12302,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A333:F333"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A26:F26"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A312:F312"/>
     <mergeCell ref="A268:F268"/>
@@ -12309,11 +12314,6 @@
     <mergeCell ref="A196:F196"/>
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="A151:F151"/>
-    <mergeCell ref="A333:F333"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A26:F26"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/git-terminal-keyboard-shortcuts.xlsx
+++ b/git-terminal-keyboard-shortcuts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eyvind-earle/Dropbox/localhost-backup/GIT/steveos-git-shortcuts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Smith/GIT/steveos-git-shortcuts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1379619-CCE0-004E-B90A-199F7238C58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B267EEE-7688-044A-B4DA-1AB9E6E4D2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15200" yWindow="0" windowWidth="32820" windowHeight="28800" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
+    <workbookView xWindow="15080" yWindow="0" windowWidth="32820" windowHeight="28800" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="582">
   <si>
     <t>Configuration</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>ls</t>
-  </si>
-  <si>
-    <t>ls -la</t>
   </si>
   <si>
     <t>cd</t>
@@ -9138,6 +9135,52 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> of the point of divergence of the branches</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ls (-la </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Menlo Italic"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> -a)</t>
+    </r>
+  </si>
+  <si>
+    <t>Restore file changes from working file to original state</t>
+  </si>
+  <si>
+    <r>
+      <t>Revert changes made in a commit (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Bold Italic"/>
+      </rPr>
+      <t>SHA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
 </sst>
@@ -9145,7 +9188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9387,6 +9430,21 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -9435,7 +9493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9464,13 +9522,15 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9790,8 +9850,8 @@
   </sheetPr>
   <dimension ref="A1:G366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" zoomScale="212" zoomScaleNormal="210" zoomScaleSheetLayoutView="33" workbookViewId="0">
-      <selection activeCell="A337" sqref="A337:F337"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="212" zoomScaleNormal="210" zoomScaleSheetLayoutView="33" workbookViewId="0">
+      <selection activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9806,117 +9866,117 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31">
       <c r="A1" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="21"/>
     </row>
     <row r="9" spans="1:6" ht="27" thickBot="1">
-      <c r="A9" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
+      <c r="A9" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="21"/>
     </row>
     <row r="13" spans="1:6" ht="27" thickBot="1">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -9925,12 +9985,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
@@ -9939,12 +9999,12 @@
         <v>2</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="C17" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>5</v>
@@ -9953,7 +10013,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -9964,10 +10024,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -9978,10 +10038,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -9992,10 +10052,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>519</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -10006,10 +10066,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>521</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -10020,10 +10080,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -10034,10 +10094,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -10048,10 +10108,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -10062,10 +10122,10 @@
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>557</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -10079,7 +10139,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -10090,828 +10150,828 @@
         <v>4</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="27" thickBot="1">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
     </row>
     <row r="30" spans="1:6">
       <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="C31" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>579</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="C33" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="C35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="C36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="C37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="C38" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="C39" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="C40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="C41" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="C42" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="C43" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="C44" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="27" thickBot="1">
-      <c r="A46" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="27"/>
+      <c r="A46" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="32"/>
     </row>
     <row r="47" spans="1:6">
       <c r="C47" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="C48" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="C49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="C50" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="C51" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="C52" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="C53" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="C54" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="C55" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="27" thickBot="1">
-      <c r="A57" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
+      <c r="A57" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
     </row>
     <row r="58" spans="1:6">
       <c r="C58" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="C59" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="C60" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="C61" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="C62" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="C63" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="C64" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="C65" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="C66" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="C67" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="C68" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="C69" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="C70" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="C71" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="C72" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="C73" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="C75" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="C83" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="C90" s="3"/>
     </row>
     <row r="91" spans="1:6" ht="27" thickBot="1">
-      <c r="A91" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="27"/>
+      <c r="A91" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="32"/>
     </row>
     <row r="92" spans="1:6">
       <c r="C92" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="C94" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="C99" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="C113" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>5</v>
@@ -10920,12 +10980,12 @@
         <v>1</v>
       </c>
       <c r="F113" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="C114" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>5</v>
@@ -10934,26 +10994,26 @@
         <v>1</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="C115" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="C116" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>5</v>
@@ -10962,35 +11022,35 @@
         <v>1</v>
       </c>
       <c r="F116" s="23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="C117" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F117" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="C118" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D118" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -11001,10 +11061,10 @@
         <v>4</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F119" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -11015,10 +11075,10 @@
         <v>4</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -11029,10 +11089,10 @@
         <v>4</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -11043,10 +11103,10 @@
         <v>4</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -11057,10 +11117,10 @@
         <v>4</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F123" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -11071,10 +11131,10 @@
         <v>4</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F124" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -11085,10 +11145,10 @@
         <v>4</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F125" s="15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -11099,10 +11159,10 @@
         <v>4</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F126" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -11113,10 +11173,10 @@
         <v>4</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F127" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -11127,10 +11187,10 @@
         <v>4</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F128" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -11141,10 +11201,10 @@
         <v>4</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F129" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -11155,10 +11215,10 @@
         <v>4</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -11169,10 +11229,10 @@
         <v>4</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -11183,10 +11243,10 @@
         <v>4</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F132" s="15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -11197,10 +11257,10 @@
         <v>4</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -11211,10 +11271,10 @@
         <v>4</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F134" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -11225,10 +11285,10 @@
         <v>4</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F135" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -11239,122 +11299,122 @@
         <v>4</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F136" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="C138" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D138" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E138" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="F138" s="22" t="s">
         <v>451</v>
-      </c>
-      <c r="F138" s="22" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F139" s="15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F140" s="15" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F141" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F142" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="C144" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F144" s="23" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="C145" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="D145" s="28" t="s">
+      <c r="C145" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="D145" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E145" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="F145" s="30" t="s">
-        <v>524</v>
+      <c r="E145" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F145" s="28" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="C146" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F146" s="23" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -11365,10 +11425,10 @@
         <v>4</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F147" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -11379,10 +11439,10 @@
         <v>4</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F148" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -11393,10 +11453,10 @@
         <v>4</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F149" s="15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -11407,10 +11467,10 @@
         <v>4</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F150" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -11421,10 +11481,10 @@
         <v>4</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F151" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -11435,31 +11495,31 @@
         <v>4</v>
       </c>
       <c r="C152" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F152" s="15" t="s">
         <v>531</v>
-      </c>
-      <c r="F152" s="15" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="C153" s="3"/>
     </row>
     <row r="154" spans="1:6" ht="27" thickBot="1">
-      <c r="A154" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="B154" s="26"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="26"/>
-      <c r="E154" s="26"/>
-      <c r="F154" s="26"/>
+      <c r="A154" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="B154" s="31"/>
+      <c r="C154" s="31"/>
+      <c r="D154" s="31"/>
+      <c r="E154" s="31"/>
+      <c r="F154" s="31"/>
     </row>
     <row r="155" spans="1:6">
       <c r="C155" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="F155" s="31" t="s">
-        <v>533</v>
+        <v>276</v>
+      </c>
+      <c r="F155" s="29" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -11467,44 +11527,44 @@
     </row>
     <row r="157" spans="1:6">
       <c r="C157" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D157" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F157" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F158" s="15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F159" s="15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -11512,164 +11572,164 @@
     </row>
     <row r="161" spans="1:6">
       <c r="C161" s="25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D161" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E161" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F161" s="22" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F162" s="15" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F163" s="15" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F164" s="15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F165" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F166" s="15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C167" s="25" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D167" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E167" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F167" s="16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F168" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F169" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -11677,77 +11737,77 @@
     </row>
     <row r="171" spans="1:6">
       <c r="C171" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D171" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E171" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F171" s="22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F172" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F173" s="15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F174" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F175" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="C177" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D177" s="14" t="s">
         <v>5</v>
@@ -11756,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="F177" s="22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -11767,10 +11827,10 @@
         <v>4</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F178" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -11781,10 +11841,10 @@
         <v>4</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F179" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -11795,10 +11855,10 @@
         <v>4</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F180" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -11809,10 +11869,10 @@
         <v>4</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F181" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -11823,10 +11883,10 @@
         <v>4</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F182" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -11837,10 +11897,10 @@
         <v>4</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F183" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -11851,10 +11911,10 @@
         <v>4</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F184" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -11865,10 +11925,10 @@
         <v>4</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F185" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -11879,10 +11939,10 @@
         <v>4</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F186" s="15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -11893,10 +11953,10 @@
         <v>4</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F187" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -11907,10 +11967,10 @@
         <v>4</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F188" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -11918,346 +11978,346 @@
     </row>
     <row r="190" spans="1:6">
       <c r="C190" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D190" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E190" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F190" s="16"/>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F191" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F192" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F193" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F194" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" s="24" t="s">
         <v>211</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C195" s="24" t="s">
-        <v>212</v>
       </c>
       <c r="D195" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E195" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F195" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F196" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F197" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F198" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="27" thickBot="1">
-      <c r="A200" s="26" t="s">
-        <v>553</v>
-      </c>
-      <c r="B200" s="26"/>
-      <c r="C200" s="26"/>
-      <c r="D200" s="26"/>
-      <c r="E200" s="26"/>
-      <c r="F200" s="27"/>
+      <c r="A200" s="31" t="s">
+        <v>552</v>
+      </c>
+      <c r="B200" s="31"/>
+      <c r="C200" s="31"/>
+      <c r="D200" s="31"/>
+      <c r="E200" s="31"/>
+      <c r="F200" s="32"/>
     </row>
     <row r="201" spans="1:6">
       <c r="C201" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F201" s="15" t="s">
-        <v>36</v>
+        <v>581</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="C202" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F202" s="15" t="s">
-        <v>310</v>
+        <v>580</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="C203" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F203" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="C204" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F204" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="C207" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F207" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="C208" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F208" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="F209" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F210" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F211" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F213" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C214" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F214" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="F214" s="15" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F215" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F216" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F217" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F218" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -12268,10 +12328,10 @@
         <v>4</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F219" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -12282,10 +12342,10 @@
         <v>4</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F220" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -12296,10 +12356,10 @@
         <v>4</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F221" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -12309,493 +12369,493 @@
       <c r="C223" s="2"/>
     </row>
     <row r="225" spans="1:6" ht="27" thickBot="1">
-      <c r="A225" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="B225" s="26"/>
-      <c r="C225" s="26"/>
-      <c r="D225" s="26"/>
-      <c r="E225" s="26"/>
-      <c r="F225" s="27"/>
+      <c r="A225" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B225" s="31"/>
+      <c r="C225" s="31"/>
+      <c r="D225" s="31"/>
+      <c r="E225" s="31"/>
+      <c r="F225" s="32"/>
     </row>
     <row r="228" spans="1:6">
       <c r="C228" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F228" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="C229" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F229" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="C230" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F230" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="C231" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F231" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C232" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F232" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="F232" s="15" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C233" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F233" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="F233" s="15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F234" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F234" s="15" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C235" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F235" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="F235" s="15" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F236" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F237" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C238" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F238" s="15" t="s">
         <v>192</v>
-      </c>
-      <c r="F238" s="15" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F239" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F240" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F241" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="C242" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F242" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F243" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F244" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F245" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F246" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F247" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F248" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F249" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C250" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F250" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="F250" s="15" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="C252" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F252" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B253" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="F253" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F254" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F255" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F256" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F257" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F258" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F259" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C260" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F260" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="F260" s="15" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="C261" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F261" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="F261" s="15" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="C262" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F262" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="C264" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F264" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="C267" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F267" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -12806,10 +12866,10 @@
         <v>4</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F268" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -12820,10 +12880,10 @@
         <v>4</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F269" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -12834,125 +12894,125 @@
         <v>4</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D270" s="9"/>
       <c r="E270" s="9"/>
       <c r="F270" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="27" thickBot="1">
-      <c r="A272" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="B272" s="26"/>
-      <c r="C272" s="26"/>
-      <c r="D272" s="26"/>
-      <c r="E272" s="26"/>
-      <c r="F272" s="27"/>
+      <c r="A272" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="B272" s="31"/>
+      <c r="C272" s="31"/>
+      <c r="D272" s="31"/>
+      <c r="E272" s="31"/>
+      <c r="F272" s="32"/>
     </row>
     <row r="273" spans="1:6">
       <c r="C273" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E273" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F273" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="F273" s="15" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C274" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F274" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="F274" s="15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F275" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F276" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F277" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F278" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F279" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="C281" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>5</v>
@@ -12961,7 +13021,7 @@
         <v>3</v>
       </c>
       <c r="F281" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -12972,10 +13032,10 @@
         <v>4</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F282" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -12986,10 +13046,10 @@
         <v>4</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F283" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -13000,10 +13060,10 @@
         <v>4</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F284" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -13014,10 +13074,10 @@
         <v>4</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F285" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -13028,10 +13088,10 @@
         <v>4</v>
       </c>
       <c r="C286" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F286" s="15" t="s">
         <v>231</v>
-      </c>
-      <c r="F286" s="15" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -13042,10 +13102,10 @@
         <v>4</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F287" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -13056,10 +13116,10 @@
         <v>4</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F288" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -13070,10 +13130,10 @@
         <v>4</v>
       </c>
       <c r="C289" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F289" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="F289" s="15" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -13084,10 +13144,10 @@
         <v>4</v>
       </c>
       <c r="C290" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F290" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="F290" s="15" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -13098,10 +13158,10 @@
         <v>4</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F291" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -13112,42 +13172,42 @@
         <v>4</v>
       </c>
       <c r="C292" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F292" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="F292" s="15" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="C297" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F297" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="C298" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F298" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="C299" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F299" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="C300" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F300" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -13155,369 +13215,369 @@
     </row>
     <row r="302" spans="1:6">
       <c r="C302" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F302" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="C303" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F303" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="F303" s="15" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="C305" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F305" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="C306" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F306" s="15" t="s">
         <v>228</v>
-      </c>
-      <c r="F306" s="15" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="C307" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F307" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="C308" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F308" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="C309" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F309" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F310" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F311" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F312" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F313" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="27" thickBot="1">
-      <c r="A316" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="B316" s="26"/>
-      <c r="C316" s="26"/>
-      <c r="D316" s="26"/>
-      <c r="E316" s="26"/>
-      <c r="F316" s="27"/>
+      <c r="A316" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="B316" s="31"/>
+      <c r="C316" s="31"/>
+      <c r="D316" s="31"/>
+      <c r="E316" s="31"/>
+      <c r="F316" s="32"/>
     </row>
     <row r="317" spans="1:6">
       <c r="C317" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E317" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F317" s="15" t="s">
         <v>237</v>
-      </c>
-      <c r="F317" s="15" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="C318" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F318" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="C319" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F319" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="C320" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F320" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="321" spans="3:6">
       <c r="C321" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F321" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="322" spans="3:6">
       <c r="C322" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F322" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="323" spans="3:6">
       <c r="C323" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F323" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="324" spans="3:6">
       <c r="C324" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F324" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="325" spans="3:6">
       <c r="C325" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F325" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="326" spans="3:6">
       <c r="C326" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F326" s="15" t="s">
         <v>239</v>
-      </c>
-      <c r="F326" s="15" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="327" spans="3:6">
       <c r="C327" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F327" s="15" t="s">
         <v>257</v>
-      </c>
-      <c r="F327" s="15" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="329" spans="3:6">
       <c r="C329" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F329" s="15" t="s">
         <v>267</v>
-      </c>
-      <c r="F329" s="15" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="330" spans="3:6">
       <c r="C330" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F330" s="15" t="s">
         <v>269</v>
-      </c>
-      <c r="F330" s="15" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="331" spans="3:6">
       <c r="C331" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F331" s="15" t="s">
         <v>271</v>
-      </c>
-      <c r="F331" s="15" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="332" spans="3:6">
       <c r="C332" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F332" s="15" t="s">
         <v>273</v>
-      </c>
-      <c r="F332" s="15" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="334" spans="3:6">
       <c r="C334" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="27" thickBot="1">
-      <c r="A337" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="B337" s="26"/>
-      <c r="C337" s="26"/>
-      <c r="D337" s="26"/>
-      <c r="E337" s="26"/>
-      <c r="F337" s="27"/>
+      <c r="A337" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="B337" s="31"/>
+      <c r="C337" s="31"/>
+      <c r="D337" s="31"/>
+      <c r="E337" s="31"/>
+      <c r="F337" s="32"/>
     </row>
     <row r="338" spans="1:6">
       <c r="C338" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F338" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="339" spans="1:6">
-      <c r="C339" s="28"/>
-      <c r="D339" s="28"/>
-      <c r="E339" s="28"/>
-      <c r="F339" s="30"/>
+      <c r="C339" s="26"/>
+      <c r="D339" s="26"/>
+      <c r="E339" s="26"/>
+      <c r="F339" s="28"/>
     </row>
     <row r="340" spans="1:6">
       <c r="C340" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D340" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E340" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F340" s="22" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F341" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="C343" s="14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D343" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E343" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F343" s="16" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C344" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F344" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="346" spans="1:6">
       <c r="C346" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F346" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="347" spans="1:6">
       <c r="C347" s="14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D347" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E347" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F347" s="22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -13528,10 +13588,10 @@
         <v>4</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F348" s="15" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -13542,10 +13602,10 @@
         <v>4</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F349" s="15" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -13556,10 +13616,10 @@
         <v>4</v>
       </c>
       <c r="C350" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F350" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -13570,10 +13630,10 @@
         <v>4</v>
       </c>
       <c r="C351" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F351" s="15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -13584,10 +13644,10 @@
         <v>4</v>
       </c>
       <c r="C352" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F352" s="15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -13598,10 +13658,10 @@
         <v>4</v>
       </c>
       <c r="C353" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="F353" s="15" t="s">
         <v>569</v>
-      </c>
-      <c r="F353" s="15" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -13612,10 +13672,10 @@
         <v>4</v>
       </c>
       <c r="C354" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F354" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -13626,10 +13686,10 @@
         <v>4</v>
       </c>
       <c r="C355" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F355" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -13640,10 +13700,10 @@
         <v>4</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F356" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -13651,71 +13711,71 @@
     </row>
     <row r="358" spans="1:7">
       <c r="C358" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D358" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E358" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F358" s="22" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F359" s="15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F360" s="15" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="361" spans="1:7">
       <c r="A361" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F361" s="15" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="363" spans="1:7">
-      <c r="G363" s="32"/>
+      <c r="G363" s="30"/>
     </row>
     <row r="364" spans="1:7">
-      <c r="G364" s="32"/>
+      <c r="G364" s="30"/>
     </row>
     <row r="365" spans="1:7">
-      <c r="G365" s="32"/>
+      <c r="G365" s="30"/>
     </row>
     <row r="366" spans="1:7">
-      <c r="G366" s="32"/>
+      <c r="G366" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/git-terminal-keyboard-shortcuts.xlsx
+++ b/git-terminal-keyboard-shortcuts.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Smith/GIT/steveos-git-shortcuts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B267EEE-7688-044A-B4DA-1AB9E6E4D2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017C5B42-5183-754F-8FB7-8C5930BF8091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15080" yWindow="0" windowWidth="32820" windowHeight="28800" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
+    <workbookView xWindow="15040" yWindow="20" windowWidth="32820" windowHeight="28800" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$57:$F$313</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$57:$F$326</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="589">
   <si>
     <t>Configuration</t>
   </si>
@@ -3880,6 +3880,24 @@
     </r>
   </si>
   <si>
+    <t>[pa]</t>
+  </si>
+  <si>
+    <t>Rebase</t>
+  </si>
+  <si>
+    <t>[rb]</t>
+  </si>
+  <si>
+    <t>--skip</t>
+  </si>
+  <si>
+    <t>--abort</t>
+  </si>
+  <si>
+    <t>base_branch</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <i/>
@@ -3887,14 +3905,30 @@
         <color rgb="FF0070C0"/>
         <rFont val="Menlo Regular"/>
       </rPr>
-      <t>SHA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>..</t>
+      <t>base_branch</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>branch_name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git merge-base </t>
     </r>
     <r>
       <rPr>
@@ -3903,14 +3937,28 @@
         <color rgb="FF0070C0"/>
         <rFont val="Menlo Regular"/>
       </rPr>
-      <t>SHA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> -o </t>
+      <t>base_branch branch_name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>rebase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -3919,10 +3967,28 @@
         <color rgb="FF0070C0"/>
         <rFont val="Menlo Regular"/>
       </rPr>
-      <t>folder_name</t>
-    </r>
-  </si>
-  <si>
+      <t>required option</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>--continue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>--onto</t>
+    </r>
     <r>
       <rPr>
         <i/>
@@ -3930,14 +3996,20 @@
         <color rgb="FF0070C0"/>
         <rFont val="Menlo Regular"/>
       </rPr>
-      <t>SHA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>..</t>
+      <t xml:space="preserve"> new_base current_base branch_name</t>
+    </r>
+  </si>
+  <si>
+    <t>Undo a simple rebase where the ORIG_HEAD is unchanged</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>--onto</t>
     </r>
     <r>
       <rPr>
@@ -3946,14 +4018,19 @@
         <color rgb="FF0070C0"/>
         <rFont val="Menlo Regular"/>
       </rPr>
-      <t>SHA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> --stdout &gt; </t>
+      <t xml:space="preserve"> SHA current_base branch_name</t>
+    </r>
+  </si>
+  <si>
+    <t>[ri]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>HEAD~</t>
     </r>
     <r>
       <rPr>
@@ -3962,40 +4039,32 @@
         <color rgb="FF0070C0"/>
         <rFont val="Menlo Regular"/>
       </rPr>
-      <t>new_filepath/filename.patch</t>
-    </r>
-  </si>
-  <si>
-    <t>[pa]</t>
-  </si>
-  <si>
-    <t>Rebase</t>
-  </si>
-  <si>
-    <t>[rb]</t>
-  </si>
-  <si>
-    <t>--skip</t>
-  </si>
-  <si>
-    <t>--abort</t>
-  </si>
-  <si>
-    <t>base_branch</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>base_branch</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t>interger</t>
+    </r>
+  </si>
+  <si>
+    <t>fetch from a remote and rebase local changes</t>
+  </si>
+  <si>
+    <t>fetch and rebase but preserve local commits on the branch</t>
+  </si>
+  <si>
+    <t>fetch and rebase in interactive mode</t>
+  </si>
+  <si>
+    <r>
+      <t>git pull (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>-r</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Menlo Regular"/>
@@ -4006,29 +4075,18 @@
       <rPr>
         <i/>
         <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>branch_name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git merge-base </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>base_branch branch_name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -4036,57 +4094,61 @@
         <color rgb="FFFF0000"/>
         <rFont val="Menlo Regular"/>
       </rPr>
-      <t>rebase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>required option</t>
-    </r>
-  </si>
-  <si>
+      <t>--rebase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git pull </t>
+    </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="Menlo Regular"/>
       </rPr>
-      <t>--continue</t>
-    </r>
-  </si>
-  <si>
+      <t>--rebase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>=preserve</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git pull </t>
+    </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="Menlo Regular"/>
       </rPr>
-      <t>--onto</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> new_base current_base branch_name</t>
-    </r>
-  </si>
-  <si>
-    <t>Undo a simple rebase where the ORIG_HEAD is unchanged</t>
+      <t>--rebase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>=interactive</t>
+    </r>
+  </si>
+  <si>
+    <t>[pu]</t>
   </si>
   <si>
     <r>
@@ -4095,154 +4157,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="Menlo Regular"/>
       </rPr>
-      <t>--onto</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> SHA current_base branch_name</t>
-    </r>
-  </si>
-  <si>
-    <t>[ri]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>HEAD~</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>interger</t>
-    </r>
-  </si>
-  <si>
-    <t>fetch from a remote and rebase local changes</t>
-  </si>
-  <si>
-    <t>fetch and rebase but preserve local commits on the branch</t>
-  </si>
-  <si>
-    <t>fetch and rebase in interactive mode</t>
-  </si>
-  <si>
-    <r>
-      <t>git pull (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>-r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>--rebase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git pull </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>--rebase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>=preserve</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git pull </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>--rebase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>=interactive</t>
-    </r>
-  </si>
-  <si>
-    <t>[pu]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
       <t>--hard</t>
     </r>
     <r>
@@ -4265,9 +4179,6 @@
   </si>
   <si>
     <t>Restore files changes from staging back to working directory</t>
-  </si>
-  <si>
-    <t>Checkout files changes from working file to original state (superseded by restore)</t>
   </si>
   <si>
     <t>Reset files changes from staging back to working directory</t>
@@ -6024,9 +5935,6 @@
     </r>
   </si>
   <si>
-    <t>Restore changes from a commit directly to work file (superseded by restore)</t>
-  </si>
-  <si>
     <t>Restore changes from a commit directly to work file</t>
   </si>
   <si>
@@ -9162,8 +9070,48 @@
     <t>Restore file changes from working file to original state</t>
   </si>
   <si>
-    <r>
-      <t>Revert changes made in a commit (</t>
+    <t>Checkout files changes from work files to original state (superseded by restore)</t>
+  </si>
+  <si>
+    <t>Restore changes from a commit directly to work files (superseded by restore)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git restore --source </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>required option</t>
+    </r>
+  </si>
+  <si>
+    <t>[rc]</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Revert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> changes made in a commit (</t>
     </r>
     <r>
       <rPr>
@@ -9180,7 +9128,47 @@
         <rFont val="Arial Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
+      <t>) resulting in another commit</t>
+    </r>
+  </si>
+  <si>
+    <t>Restore file changes from another commit</t>
+  </si>
+  <si>
+    <t>Restore file changes from staging back to working directory</t>
+  </si>
+  <si>
+    <t>SHA filepath/filename</t>
+  </si>
+  <si>
+    <t>Restore from commit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-o </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>folder_name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">--stdout &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>new_filepath/filename.patch</t>
     </r>
   </si>
 </sst>
@@ -9527,10 +9515,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9848,10 +9836,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G366"/>
+  <dimension ref="A1:G379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="212" zoomScaleNormal="210" zoomScaleSheetLayoutView="33" workbookViewId="0">
-      <selection activeCell="C207" sqref="C207"/>
+    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="212" zoomScaleNormal="210" zoomScaleSheetLayoutView="33" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200:F200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9866,83 +9854,83 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31">
       <c r="A1" s="18" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="19" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="20" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="21" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="21"/>
     </row>
     <row r="9" spans="1:6" ht="27" thickBot="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -9950,33 +9938,33 @@
         <v>45</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="21"/>
     </row>
     <row r="13" spans="1:6" ht="27" thickBot="1">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="10" t="s">
         <v>173</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -9985,12 +9973,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
@@ -9999,12 +9987,12 @@
         <v>2</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="C17" s="14" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>5</v>
@@ -10013,7 +10001,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -10027,7 +10015,7 @@
         <v>56</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -10041,7 +10029,7 @@
         <v>55</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -10052,10 +10040,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -10066,10 +10054,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -10083,7 +10071,7 @@
         <v>54</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -10097,7 +10085,7 @@
         <v>53</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -10111,7 +10099,7 @@
         <v>208</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -10122,10 +10110,10 @@
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -10139,7 +10127,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -10153,25 +10141,25 @@
         <v>42</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="27" thickBot="1">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
     </row>
     <row r="30" spans="1:6">
       <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -10179,15 +10167,15 @@
         <v>161</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="C32" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -10195,7 +10183,7 @@
         <v>160</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -10203,7 +10191,7 @@
         <v>10</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -10211,7 +10199,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -10219,7 +10207,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -10227,7 +10215,7 @@
         <v>13</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -10235,7 +10223,7 @@
         <v>112</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -10243,7 +10231,7 @@
         <v>166</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -10251,15 +10239,15 @@
         <v>52</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="C41" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -10267,7 +10255,7 @@
         <v>66</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -10275,7 +10263,7 @@
         <v>162</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -10283,28 +10271,28 @@
         <v>163</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="27" thickBot="1">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="32"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="34"/>
     </row>
     <row r="47" spans="1:6">
       <c r="C47" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -10312,7 +10300,7 @@
         <v>18</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -10320,39 +10308,39 @@
         <v>19</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="C50" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="C51" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="C52" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="C53" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -10360,7 +10348,7 @@
         <v>20</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -10368,25 +10356,25 @@
         <v>25</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="27" thickBot="1">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
     </row>
     <row r="58" spans="1:6">
       <c r="C58" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -10394,7 +10382,7 @@
         <v>33</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -10402,7 +10390,7 @@
         <v>194</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -10410,7 +10398,7 @@
         <v>193</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -10418,7 +10406,7 @@
         <v>22</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -10426,7 +10414,7 @@
         <v>101</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -10434,7 +10422,7 @@
         <v>99</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -10442,7 +10430,7 @@
         <v>100</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -10450,7 +10438,7 @@
         <v>258</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -10458,7 +10446,7 @@
         <v>24</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -10466,7 +10454,7 @@
         <v>225</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -10474,7 +10462,7 @@
         <v>226</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -10482,7 +10470,7 @@
         <v>227</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -10490,7 +10478,7 @@
         <v>66</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -10498,7 +10486,7 @@
         <v>162</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -10506,26 +10494,26 @@
         <v>163</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="C75" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>4</v>
@@ -10534,12 +10522,12 @@
         <v>168</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>4</v>
@@ -10548,12 +10536,12 @@
         <v>174</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>4</v>
@@ -10562,12 +10550,12 @@
         <v>175</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>4</v>
@@ -10576,12 +10564,12 @@
         <v>167</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>4</v>
@@ -10590,12 +10578,12 @@
         <v>264</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>4</v>
@@ -10604,12 +10592,12 @@
         <v>265</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="C83" s="14" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>5</v>
@@ -10618,7 +10606,7 @@
         <v>26</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -10632,7 +10620,7 @@
         <v>65</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -10643,10 +10631,10 @@
         <v>4</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -10660,7 +10648,7 @@
         <v>64</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -10671,10 +10659,10 @@
         <v>4</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -10688,7 +10676,7 @@
         <v>164</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -10702,33 +10690,33 @@
         <v>260</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="C90" s="3"/>
     </row>
     <row r="91" spans="1:6" ht="27" thickBot="1">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="32"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="34"/>
     </row>
     <row r="92" spans="1:6">
       <c r="C92" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="C94" s="14" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>5</v>
@@ -10737,7 +10725,7 @@
         <v>23</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -10751,7 +10739,7 @@
         <v>260</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -10765,7 +10753,7 @@
         <v>68</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -10779,7 +10767,7 @@
         <v>71</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -10793,7 +10781,7 @@
         <v>69</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -10812,7 +10800,7 @@
         <v>72</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -10826,7 +10814,7 @@
         <v>63</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -10840,7 +10828,7 @@
         <v>61</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -10854,7 +10842,7 @@
         <v>62</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -10865,10 +10853,10 @@
         <v>4</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -10882,7 +10870,7 @@
         <v>60</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -10896,7 +10884,7 @@
         <v>59</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -10910,7 +10898,7 @@
         <v>58</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -10924,7 +10912,7 @@
         <v>57</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -10938,7 +10926,7 @@
         <v>27</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -10952,7 +10940,7 @@
         <v>67</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -10963,10 +10951,10 @@
         <v>4</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -10994,7 +10982,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -11008,7 +10996,7 @@
         <v>38</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -11022,7 +11010,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="23" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -11036,7 +11024,7 @@
         <v>39</v>
       </c>
       <c r="F117" s="15" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -11050,7 +11038,7 @@
         <v>40</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -11064,7 +11052,7 @@
         <v>88</v>
       </c>
       <c r="F119" s="15" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -11078,7 +11066,7 @@
         <v>90</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -11089,10 +11077,10 @@
         <v>4</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -11106,7 +11094,7 @@
         <v>91</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -11120,7 +11108,7 @@
         <v>92</v>
       </c>
       <c r="F123" s="15" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -11131,10 +11119,10 @@
         <v>4</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F124" s="15" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -11148,7 +11136,7 @@
         <v>93</v>
       </c>
       <c r="F125" s="15" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -11162,7 +11150,7 @@
         <v>94</v>
       </c>
       <c r="F126" s="15" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -11173,10 +11161,10 @@
         <v>4</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F127" s="15" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -11190,7 +11178,7 @@
         <v>95</v>
       </c>
       <c r="F128" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -11204,7 +11192,7 @@
         <v>96</v>
       </c>
       <c r="F129" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -11218,7 +11206,7 @@
         <v>97</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -11232,7 +11220,7 @@
         <v>98</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -11243,10 +11231,10 @@
         <v>4</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F132" s="15" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -11257,10 +11245,10 @@
         <v>4</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -11274,7 +11262,7 @@
         <v>219</v>
       </c>
       <c r="F134" s="15" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -11288,7 +11276,7 @@
         <v>220</v>
       </c>
       <c r="F135" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -11302,96 +11290,96 @@
         <v>221</v>
       </c>
       <c r="F136" s="15" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="C138" s="14" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D138" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F138" s="22" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F139" s="15" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F140" s="15" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F141" s="15" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F142" s="15" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="C144" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F144" s="23" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="C145" s="27" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D145" s="26" t="s">
         <v>5</v>
@@ -11400,21 +11388,21 @@
         <v>74</v>
       </c>
       <c r="F145" s="28" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="C146" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F146" s="23" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -11425,10 +11413,10 @@
         <v>4</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F147" s="15" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -11439,10 +11427,10 @@
         <v>4</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F148" s="15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -11453,10 +11441,10 @@
         <v>4</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F149" s="15" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -11467,10 +11455,10 @@
         <v>4</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F150" s="15" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -11481,10 +11469,10 @@
         <v>4</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F151" s="15" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -11495,31 +11483,31 @@
         <v>4</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F152" s="15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="C153" s="3"/>
     </row>
     <row r="154" spans="1:6" ht="27" thickBot="1">
-      <c r="A154" s="31" t="s">
-        <v>458</v>
-      </c>
-      <c r="B154" s="31"/>
-      <c r="C154" s="31"/>
-      <c r="D154" s="31"/>
-      <c r="E154" s="31"/>
-      <c r="F154" s="31"/>
+      <c r="A154" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="B154" s="33"/>
+      <c r="C154" s="33"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="33"/>
+      <c r="F154" s="33"/>
     </row>
     <row r="155" spans="1:6">
       <c r="C155" s="8" t="s">
         <v>276</v>
       </c>
       <c r="F155" s="29" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -11550,7 +11538,7 @@
         <v>259</v>
       </c>
       <c r="F158" s="15" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -11564,7 +11552,7 @@
         <v>277</v>
       </c>
       <c r="F159" s="15" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -11572,21 +11560,21 @@
     </row>
     <row r="161" spans="1:6">
       <c r="C161" s="25" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D161" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E161" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F161" s="22" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>4</v>
@@ -11598,15 +11586,15 @@
         <v>5</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F162" s="15" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>4</v>
@@ -11618,15 +11606,15 @@
         <v>5</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F163" s="15" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>4</v>
@@ -11638,35 +11626,35 @@
         <v>5</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F164" s="15" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E165" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F165" s="15" t="s">
         <v>538</v>
-      </c>
-      <c r="F165" s="15" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>4</v>
@@ -11678,58 +11666,58 @@
         <v>5</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F166" s="15" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C167" s="25" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D167" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E167" s="14" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F167" s="16" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>282</v>
+        <v>587</v>
       </c>
       <c r="F168" s="15" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>283</v>
+        <v>588</v>
       </c>
       <c r="F169" s="15" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -11737,77 +11725,77 @@
     </row>
     <row r="171" spans="1:6">
       <c r="C171" s="14" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D171" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E171" s="14" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F171" s="22" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C172" s="12" t="s">
-        <v>453</v>
-      </c>
       <c r="F172" s="15" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F173" s="15" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F174" s="15" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F175" s="15" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="C177" s="14" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D177" s="14" t="s">
         <v>5</v>
@@ -11816,7 +11804,7 @@
         <v>1</v>
       </c>
       <c r="F177" s="22" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -11830,7 +11818,7 @@
         <v>104</v>
       </c>
       <c r="F178" s="15" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -11844,7 +11832,7 @@
         <v>105</v>
       </c>
       <c r="F179" s="15" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -11858,7 +11846,7 @@
         <v>106</v>
       </c>
       <c r="F180" s="15" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -11872,7 +11860,7 @@
         <v>107</v>
       </c>
       <c r="F181" s="15" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -11886,7 +11874,7 @@
         <v>261</v>
       </c>
       <c r="F182" s="15" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -11900,7 +11888,7 @@
         <v>108</v>
       </c>
       <c r="F183" s="15" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -11914,7 +11902,7 @@
         <v>109</v>
       </c>
       <c r="F184" s="15" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -11928,7 +11916,7 @@
         <v>110</v>
       </c>
       <c r="F185" s="15" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -11942,7 +11930,7 @@
         <v>111</v>
       </c>
       <c r="F186" s="15" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -11956,7 +11944,7 @@
         <v>112</v>
       </c>
       <c r="F187" s="15" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -11970,7 +11958,7 @@
         <v>113</v>
       </c>
       <c r="F188" s="15" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -11999,7 +11987,7 @@
         <v>213</v>
       </c>
       <c r="F191" s="15" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -12013,10 +12001,10 @@
         <v>215</v>
       </c>
       <c r="F192" s="15" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193" s="1" t="s">
         <v>210</v>
       </c>
@@ -12027,10 +12015,10 @@
         <v>214</v>
       </c>
       <c r="F193" s="15" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194" s="1" t="s">
         <v>210</v>
       </c>
@@ -12041,10 +12029,10 @@
         <v>222</v>
       </c>
       <c r="F194" s="15" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" s="1" t="s">
         <v>210</v>
       </c>
@@ -12061,10 +12049,10 @@
         <v>212</v>
       </c>
       <c r="F195" s="16" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" s="1" t="s">
         <v>212</v>
       </c>
@@ -12075,10 +12063,10 @@
         <v>216</v>
       </c>
       <c r="F196" s="15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" s="1" t="s">
         <v>212</v>
       </c>
@@ -12089,10 +12077,10 @@
         <v>217</v>
       </c>
       <c r="F197" s="15" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" s="1" t="s">
         <v>212</v>
       </c>
@@ -12103,784 +12091,737 @@
         <v>218</v>
       </c>
       <c r="F198" s="15" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="27" thickBot="1">
-      <c r="A200" s="31" t="s">
-        <v>552</v>
-      </c>
-      <c r="B200" s="31"/>
-      <c r="C200" s="31"/>
-      <c r="D200" s="31"/>
-      <c r="E200" s="31"/>
-      <c r="F200" s="32"/>
-    </row>
-    <row r="201" spans="1:6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="27" thickBot="1">
+      <c r="A200" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="B200" s="33"/>
+      <c r="C200" s="33"/>
+      <c r="D200" s="33"/>
+      <c r="E200" s="33"/>
+      <c r="F200" s="34"/>
+    </row>
+    <row r="201" spans="1:7">
       <c r="C201" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F201" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="G201" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
-      <c r="C202" s="1" t="s">
+    <row r="203" spans="1:7">
+      <c r="C203" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F202" s="15" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="C203" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F203" s="15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="C204" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F204" s="15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F205" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F206" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C207" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D207" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F207" s="15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="C209" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E207" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F207" s="15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="C208" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F208" s="15" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F209" s="15" t="s">
-        <v>184</v>
+      <c r="E209" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F209" s="23" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1" t="s">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>182</v>
+        <v>585</v>
       </c>
       <c r="F210" s="15" t="s">
-        <v>185</v>
+        <v>583</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1" t="s">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C211" s="3" t="s">
-        <v>183</v>
+      <c r="C211" s="1" t="s">
+        <v>585</v>
       </c>
       <c r="F211" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F213" s="15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F214" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F215" s="15" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F216" s="15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F217" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F218" s="15" t="s">
-        <v>295</v>
+        <v>583</v>
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>102</v>
+      <c r="C219" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="F219" s="15" t="s">
-        <v>314</v>
+        <v>577</v>
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>44</v>
+      <c r="C220" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="F220" s="15" t="s">
-        <v>315</v>
+        <v>578</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="1" t="s">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F221" s="15" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="C222" s="2"/>
+      <c r="A222" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F222" s="15" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="C223" s="2"/>
-    </row>
-    <row r="225" spans="1:6" ht="27" thickBot="1">
-      <c r="A225" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B225" s="31"/>
-      <c r="C225" s="31"/>
-      <c r="D225" s="31"/>
-      <c r="E225" s="31"/>
-      <c r="F225" s="32"/>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="C228" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D228" s="1" t="s">
+      <c r="A223" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F223" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="C225" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D225" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E228" s="1" t="s">
-        <v>28</v>
+      <c r="E225" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F225" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F226" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F227" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="F228" s="15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="C229" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E229" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B229" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="F229" s="15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="C230" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>32</v>
+        <v>366</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="F230" s="15" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="C231" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D231" s="1" t="s">
+      <c r="G230" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F231" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="C235" s="2"/>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="C236" s="2"/>
+    </row>
+    <row r="238" spans="1:7" ht="27" thickBot="1">
+      <c r="A238" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B238" s="33"/>
+      <c r="C238" s="33"/>
+      <c r="D238" s="33"/>
+      <c r="E238" s="33"/>
+      <c r="F238" s="34"/>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="C241" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D241" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E231" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F231" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F232" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F233" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F234" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F235" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="A236" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F236" s="15" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="A237" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F237" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="A238" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F238" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="A239" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F239" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="A240" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F240" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>133</v>
+      <c r="E241" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F241" s="15" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="C242" s="1" t="s">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F242" s="15" t="s">
-        <v>76</v>
+        <v>309</v>
       </c>
     </row>
     <row r="243" spans="1:6">
-      <c r="A243" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>149</v>
+      <c r="C243" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F243" s="15" t="s">
-        <v>76</v>
+        <v>308</v>
       </c>
     </row>
     <row r="244" spans="1:6">
-      <c r="A244" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>188</v>
+      <c r="C244" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="F244" s="15" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C245" s="3" t="s">
-        <v>189</v>
+      <c r="C245" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="F245" s="15" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C246" s="3" t="s">
-        <v>152</v>
+      <c r="C246" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="F246" s="15" t="s">
-        <v>317</v>
+        <v>128</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C247" s="3" t="s">
-        <v>153</v>
+      <c r="C247" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="F247" s="15" t="s">
-        <v>419</v>
+        <v>75</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C248" s="3" t="s">
-        <v>233</v>
+      <c r="C248" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="F248" s="15" t="s">
-        <v>343</v>
+        <v>143</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="F249" s="15" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>262</v>
+        <v>154</v>
       </c>
       <c r="F250" s="15" t="s">
-        <v>263</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F251" s="15" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="C252" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>148</v>
+      <c r="A252" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F252" s="15" t="s">
-        <v>190</v>
+        <v>81</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="1" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C253" s="4" t="s">
-        <v>149</v>
+      <c r="C253" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="F253" s="15" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="1" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F254" s="15" t="s">
-        <v>77</v>
+        <v>335</v>
       </c>
     </row>
     <row r="255" spans="1:6">
-      <c r="A255" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>151</v>
+      <c r="C255" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="F255" s="15" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="1" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C256" s="3" t="s">
-        <v>152</v>
+      <c r="C256" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="F256" s="15" t="s">
-        <v>318</v>
+        <v>76</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="1" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="F257" s="15" t="s">
-        <v>419</v>
+        <v>77</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="1" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="F258" s="15" t="s">
-        <v>343</v>
+        <v>145</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="1" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>232</v>
+        <v>152</v>
       </c>
       <c r="F259" s="15" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F260" s="15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F261" s="15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F262" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F263" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="C265" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E265" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B260" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F260" s="15" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
-      <c r="C261" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F261" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
-      <c r="C262" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F262" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
-      <c r="C264" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F264" s="15" t="s">
-        <v>345</v>
+      <c r="F265" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F266" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="267" spans="1:6">
-      <c r="C267" s="1" t="s">
-        <v>43</v>
+      <c r="A267" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="F267" s="15" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="1" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C268" s="4" t="s">
-        <v>102</v>
+      <c r="C268" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="F268" s="15" t="s">
-        <v>314</v>
+        <v>145</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="1" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C269" s="4" t="s">
-        <v>44</v>
+      <c r="C269" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="F269" s="15" t="s">
         <v>315</v>
@@ -12888,909 +12829,1025 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F270" s="15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F271" s="15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F272" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F273" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="C274" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F274" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="C275" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F275" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="C277" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F277" s="15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="C280" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F280" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C270" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D270" s="9"/>
-      <c r="E270" s="9"/>
-      <c r="F270" s="17" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" ht="27" thickBot="1">
-      <c r="A272" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="B272" s="31"/>
-      <c r="C272" s="31"/>
-      <c r="D272" s="31"/>
-      <c r="E272" s="31"/>
-      <c r="F272" s="32"/>
-    </row>
-    <row r="273" spans="1:6">
-      <c r="C273" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F273" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6">
-      <c r="A274" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F274" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6">
-      <c r="A275" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F275" s="15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6">
-      <c r="A276" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F276" s="15" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6">
-      <c r="A277" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F277" s="15" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6">
-      <c r="A278" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F278" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
-      <c r="A279" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F279" s="15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
-      <c r="C281" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>3</v>
+      <c r="B281" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="F281" s="15" t="s">
-        <v>138</v>
+        <v>311</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C282" s="2" t="s">
-        <v>155</v>
+      <c r="C282" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="F282" s="15" t="s">
-        <v>130</v>
+        <v>312</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C283" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F283" s="15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
-      <c r="A284" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F284" s="15" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6">
-      <c r="A285" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F285" s="15" t="s">
-        <v>231</v>
-      </c>
+      <c r="C283" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D283" s="9"/>
+      <c r="E283" s="9"/>
+      <c r="F283" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="27" thickBot="1">
+      <c r="A285" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="B285" s="33"/>
+      <c r="C285" s="33"/>
+      <c r="D285" s="33"/>
+      <c r="E285" s="33"/>
+      <c r="F285" s="34"/>
     </row>
     <row r="286" spans="1:6">
-      <c r="A286" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>230</v>
+      <c r="C286" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="F286" s="15" t="s">
-        <v>231</v>
+        <v>117</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="F287" s="15" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C288" s="3" t="s">
-        <v>156</v>
+      <c r="C288" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="F288" s="15" t="s">
-        <v>132</v>
+        <v>343</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C289" s="3" t="s">
-        <v>197</v>
+      <c r="C289" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="F289" s="15" t="s">
-        <v>198</v>
+        <v>344</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C290" s="3" t="s">
-        <v>200</v>
+      <c r="C290" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="F290" s="15" t="s">
-        <v>201</v>
+        <v>344</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C291" s="3" t="s">
-        <v>202</v>
+      <c r="C291" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="F291" s="15" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F292" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="C294" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E294" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B292" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C292" s="3" t="s">
+      <c r="F294" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F295" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F296" s="15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F297" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F298" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F299" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F300" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F301" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F302" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F303" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F304" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C305" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F292" s="15" t="s">
+      <c r="F305" s="15" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
-      <c r="C297" s="1" t="s">
+    <row r="310" spans="1:6">
+      <c r="C310" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F297" s="15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6">
-      <c r="C298" s="8" t="s">
+      <c r="F310" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="C311" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F298" s="15" t="s">
+      <c r="F311" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
-      <c r="C299" s="8" t="s">
+    <row r="312" spans="1:6">
+      <c r="C312" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F299" s="15" t="s">
+      <c r="F312" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
-      <c r="C300" s="3" t="s">
+    <row r="313" spans="1:6">
+      <c r="C313" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F300" s="15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6">
-      <c r="C301" s="3"/>
-    </row>
-    <row r="302" spans="1:6">
-      <c r="C302" s="4" t="s">
+      <c r="F313" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="C315" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F302" s="15" t="s">
+      <c r="F315" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
-      <c r="C303" s="1" t="s">
+    <row r="316" spans="1:6">
+      <c r="C316" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F303" s="15" t="s">
+      <c r="F316" s="15" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6">
-      <c r="C305" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F305" s="15" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
-      <c r="C306" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F306" s="15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
-      <c r="C307" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F307" s="15" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6">
-      <c r="C308" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F308" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6">
-      <c r="C309" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F309" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6">
-      <c r="A310" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F310" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6">
-      <c r="A311" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="F311" s="15" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
-      <c r="A312" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="F312" s="15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6">
-      <c r="A313" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="F313" s="15" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" ht="27" thickBot="1">
-      <c r="A316" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="B316" s="31"/>
-      <c r="C316" s="31"/>
-      <c r="D316" s="31"/>
-      <c r="E316" s="31"/>
-      <c r="F316" s="32"/>
-    </row>
-    <row r="317" spans="1:6">
-      <c r="C317" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F317" s="15" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="C318" s="1" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="F318" s="15" t="s">
-        <v>243</v>
+        <v>345</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="C319" s="1" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="F319" s="15" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="C320" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F320" s="15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="C321" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F321" s="15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="C322" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F322" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F323" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F324" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F325" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="F326" s="15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="27" thickBot="1">
+      <c r="A329" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="B329" s="33"/>
+      <c r="C329" s="33"/>
+      <c r="D329" s="33"/>
+      <c r="E329" s="33"/>
+      <c r="F329" s="34"/>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="C330" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F330" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="C331" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F331" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="C332" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F332" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="C333" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F320" s="15" t="s">
+      <c r="F333" s="15" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="321" spans="3:6">
-      <c r="C321" s="1" t="s">
+    <row r="334" spans="1:6">
+      <c r="C334" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F321" s="15" t="s">
+      <c r="F334" s="15" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="322" spans="3:6">
-      <c r="C322" s="1" t="s">
+    <row r="335" spans="1:6">
+      <c r="C335" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F322" s="15" t="s">
+      <c r="F335" s="15" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="323" spans="3:6">
-      <c r="C323" s="1" t="s">
+    <row r="336" spans="1:6">
+      <c r="C336" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F323" s="15" t="s">
+      <c r="F336" s="15" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="324" spans="3:6">
-      <c r="C324" s="1" t="s">
+    <row r="337" spans="1:6">
+      <c r="C337" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F324" s="15" t="s">
+      <c r="F337" s="15" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="325" spans="3:6">
-      <c r="C325" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F325" s="15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="326" spans="3:6">
-      <c r="C326" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F326" s="15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="327" spans="3:6">
-      <c r="C327" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F327" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="329" spans="3:6">
-      <c r="C329" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F329" s="15" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="330" spans="3:6">
-      <c r="C330" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F330" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="331" spans="3:6">
-      <c r="C331" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F331" s="15" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="332" spans="3:6">
-      <c r="C332" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F332" s="15" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="334" spans="3:6">
-      <c r="C334" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" ht="27" thickBot="1">
-      <c r="A337" s="31" t="s">
-        <v>285</v>
-      </c>
-      <c r="B337" s="31"/>
-      <c r="C337" s="31"/>
-      <c r="D337" s="31"/>
-      <c r="E337" s="31"/>
-      <c r="F337" s="32"/>
     </row>
     <row r="338" spans="1:6">
       <c r="C338" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F338" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="C339" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F339" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="C340" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F340" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="C342" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F342" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="C343" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F343" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="C344" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F344" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="C345" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F345" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="C347" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="27" thickBot="1">
+      <c r="A350" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="B350" s="33"/>
+      <c r="C350" s="33"/>
+      <c r="D350" s="33"/>
+      <c r="E350" s="33"/>
+      <c r="F350" s="34"/>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="C351" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F351" s="15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="C352" s="26"/>
+      <c r="D352" s="26"/>
+      <c r="E352" s="26"/>
+      <c r="F352" s="28"/>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="C353" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="D353" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E353" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F353" s="22" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F354" s="15" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="C356" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="D356" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E356" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F356" s="16" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C357" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F357" s="15" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="C359" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F359" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="C360" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="D360" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E360" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="F360" s="22" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C361" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="F361" s="15" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F362" s="15" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C363" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F363" s="15" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C364" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F364" s="15" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C365" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F365" s="15" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C366" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F366" s="15" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C367" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="F338" s="15" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
-      <c r="C339" s="26"/>
-      <c r="D339" s="26"/>
-      <c r="E339" s="26"/>
-      <c r="F339" s="28"/>
-    </row>
-    <row r="340" spans="1:6">
-      <c r="C340" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="D340" s="14" t="s">
+      <c r="F367" s="15" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F368" s="15" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F369" s="15" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="C370" s="8"/>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="C371" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D371" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E340" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F340" s="22" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
-      <c r="A341" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C341" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F341" s="15" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6">
-      <c r="C343" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="D343" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E343" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F343" s="16" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
-      <c r="A344" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C344" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="F344" s="15" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
-      <c r="C346" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E346" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F346" s="23" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
-      <c r="C347" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="D347" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E347" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="F347" s="22" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
-      <c r="A348" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C348" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="F348" s="15" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
-      <c r="A349" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F349" s="15" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
-      <c r="A350" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C350" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="F350" s="15" t="s">
+      <c r="E371" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="F371" s="22" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
-      <c r="A351" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C351" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="F351" s="15" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6">
-      <c r="A352" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C352" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="F352" s="15" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7">
-      <c r="A353" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C353" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="F353" s="15" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7">
-      <c r="A354" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C354" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="F354" s="15" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7">
-      <c r="A355" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C355" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="F355" s="15" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7">
-      <c r="A356" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C356" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F356" s="15" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7">
-      <c r="C357" s="8"/>
-    </row>
-    <row r="358" spans="1:7">
-      <c r="C358" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D358" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E358" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="F358" s="22" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7">
-      <c r="A359" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C359" s="1" t="s">
+    <row r="372" spans="1:7">
+      <c r="A372" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F372" s="15" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F373" s="15" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C374" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F359" s="15" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7">
-      <c r="A360" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F360" s="15" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7">
-      <c r="A361" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F361" s="15" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7">
-      <c r="G363" s="30"/>
-    </row>
-    <row r="364" spans="1:7">
-      <c r="G364" s="30"/>
-    </row>
-    <row r="365" spans="1:7">
-      <c r="G365" s="30"/>
-    </row>
-    <row r="366" spans="1:7">
-      <c r="G366" s="30"/>
+      <c r="F374" s="15" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="G376" s="30"/>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="G377" s="30"/>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="G378" s="30"/>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="G379" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A316:F316"/>
-    <mergeCell ref="A272:F272"/>
-    <mergeCell ref="A225:F225"/>
-    <mergeCell ref="A200:F200"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A337:F337"/>
+    <mergeCell ref="A350:F350"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A329:F329"/>
+    <mergeCell ref="A285:F285"/>
+    <mergeCell ref="A238:F238"/>
+    <mergeCell ref="A200:F200"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A154:F154"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/git-terminal-keyboard-shortcuts.xlsx
+++ b/git-terminal-keyboard-shortcuts.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Smith/GIT/steveos-git-shortcuts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF48379-1B5A-D340-9CA9-3C4713761B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ACFF06-25A6-AA46-8220-282B7AA79B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14740" yWindow="0" windowWidth="32820" windowHeight="28800" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
+    <workbookView xWindow="14540" yWindow="0" windowWidth="32640" windowHeight="28800" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$57:$F$325</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$57:$F$351</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="606">
   <si>
     <t>Configuration</t>
   </si>
@@ -702,9 +702,6 @@
     </r>
   </si>
   <si>
-    <t>Reset the HEAD to a tree-ish</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">--mixed </t>
     </r>
@@ -2111,9 +2108,6 @@
     </r>
   </si>
   <si>
-    <t>[in]</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <i/>
@@ -2159,15 +2153,6 @@
     <t>--root</t>
   </si>
   <si>
-    <t>Specific commit</t>
-  </si>
-  <si>
-    <t>Commit ancestry</t>
-  </si>
-  <si>
-    <t>All commits</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">git switch </t>
     </r>
@@ -2244,9 +2229,6 @@
     </r>
   </si>
   <si>
-    <t>Move HEAD/restore changes (superseded by switch)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -3972,9 +3954,6 @@
     </r>
   </si>
   <si>
-    <t>Undo a simple rebase where the ORIG_HEAD is unchanged</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -4156,9 +4135,6 @@
     <t>Reset files changes from staging back to working directory</t>
   </si>
   <si>
-    <t>Reset files changes for patch from staging back to working directory</t>
-  </si>
-  <si>
     <t>Specific files changes</t>
   </si>
   <si>
@@ -4428,9 +4404,6 @@
     </r>
   </si>
   <si>
-    <t>Reset file changes</t>
-  </si>
-  <si>
     <t>Stop tracking a remote repo</t>
   </si>
   <si>
@@ -4980,9 +4953,6 @@
     </r>
   </si>
   <si>
-    <t>Reset the HEAD to a tree-ish and matches stage</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -5000,9 +4970,6 @@
       </rPr>
       <t xml:space="preserve"> all changes to stage</t>
     </r>
-  </si>
-  <si>
-    <t>Reset the HEAD to a tree-ish and matches stage and work</t>
   </si>
   <si>
     <r>
@@ -8482,9 +8449,6 @@
     </r>
   </si>
   <si>
-    <t>Reset, Restore and Revert</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Rebase the current branch to a </t>
     </r>
@@ -9018,15 +8982,6 @@
     </r>
   </si>
   <si>
-    <t>Restore file changes from working file to original state</t>
-  </si>
-  <si>
-    <t>Checkout files changes from work files to original state (superseded by restore)</t>
-  </si>
-  <si>
-    <t>Restore changes from a commit directly to work files (superseded by restore)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">git restore --source </t>
     </r>
@@ -9047,9 +9002,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>Restore file changes from staging back to working directory</t>
-  </si>
-  <si>
     <t>SHA filepath/filename</t>
   </si>
   <si>
@@ -9085,7 +9037,93 @@
   </si>
   <si>
     <r>
-      <t>Restore file changes from another commit (</t>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Menlo Italic"/>
+      </rPr>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">-2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Italic"/>
+      </rPr>
+      <t>filepath/filename</t>
+    </r>
+  </si>
+  <si>
+    <t>Compare differences between 2 branches</t>
+  </si>
+  <si>
+    <t>Compare differences in a range of branches</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Menlo Italic"/>
+      </rPr>
+      <t>filepath/filename</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>SHA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Menlo Italic"/>
+      </rPr>
+      <t>filepath/filename</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Revert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> changes of a commit (</t>
     </r>
     <r>
       <rPr>
@@ -9102,12 +9140,559 @@
         <rFont val="Arial Narrow"/>
         <family val="2"/>
       </rPr>
+      <t>) and opens the editor. results in 2nd commit</t>
+    </r>
+  </si>
+  <si>
+    <t>Rename a remote branch</t>
+  </si>
+  <si>
+    <t>Remove (delete) a remote branch</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">filepath/filename </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>filepath/filename</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>filepath/filename string</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Checkout file changes of current branch from working file to original state</t>
+  </si>
+  <si>
+    <t>Restore file changes of current branch from working file to original state</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specific </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> changes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specific files changes using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>wildcard</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>All</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> files changes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specific </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>commit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Commit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>ancestry</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>All</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> commits</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reset </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> changes from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>staging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> back to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>working</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> directory</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Checkout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> file changes from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>staging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> back to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>work file</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Checkout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> file changes from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>work file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>original state</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Restore file changes from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>work file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>original state</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Restore file changes from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>staging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> back to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>work file</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Restore file changes from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>another commit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Bold Italic"/>
+      </rPr>
+      <t>SHA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Restore file changes from a commit 2 back of </t>
+      <t xml:space="preserve">Reset the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>HEAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>tree-ish</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reset the HEAD to a tree-ish and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>matches stage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reset the HEAD to a tree-ish and matches </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>stage and work</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reset files changes for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>patch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from staging back to working directory</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Undo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a simple </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>rebase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> where the ORIG_HEAD is unchanged</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Checkout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (superseded by switch)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Display statistics logs of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>all branches</t>
+    </r>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Restore file changes from a commit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>ancestry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of </t>
     </r>
     <r>
       <rPr>
@@ -9119,39 +9704,32 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Menlo Italic"/>
-      </rPr>
-      <t>main</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">-2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Menlo Italic"/>
-      </rPr>
-      <t>filepath/filename</t>
-    </r>
-  </si>
-  <si>
-    <t>Compare differences between 2 branches</t>
-  </si>
-  <si>
-    <t>Compare differences in a range of branches</t>
-  </si>
-  <si>
-    <r>
+    <t>Restore, Switch, Reset and Revert</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>SHA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
       <t xml:space="preserve">-- </t>
     </r>
     <r>
@@ -9166,111 +9744,122 @@
   <si>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>--hard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>branch_name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Hard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> reset current state to a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>branch</t>
+    </r>
+  </si>
+  <si>
+    <t>Restore changes from a commit directly to current work file</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create an orphaned commit from a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>tree-ish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> reference (detached HEAD)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <i/>
         <sz val="9"/>
         <color theme="4"/>
         <rFont val="Menlo Regular"/>
       </rPr>
-      <t>SHA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> -- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Menlo Italic"/>
-      </rPr>
-      <t>filepath/filename</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>Revert</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> changes of a commit (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Menlo Bold Italic"/>
-      </rPr>
-      <t>SHA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>) and opens the editor. results in 2nd commit</t>
-    </r>
-  </si>
-  <si>
-    <t>Rename a remote branch</t>
-  </si>
-  <si>
-    <t>Remove (delete) a remote branch</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">filepath/filename </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>filepath/filename</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>filepath/filename string</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Checkout file changes of current branch from working file to original state</t>
-  </si>
-  <si>
-    <t>Restore file changes of current branch from working file to original state</t>
+      <t>tree-ish</t>
+    </r>
+  </si>
+  <si>
+    <t>Switch (replaces checkout)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Checkout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (replaced by switch)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9527,6 +10116,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Menlo Regular"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -9575,7 +10169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9609,11 +10203,12 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9931,10 +10526,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G378"/>
+  <dimension ref="A1:G404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="212" zoomScaleNormal="210" zoomScaleSheetLayoutView="33" workbookViewId="0">
-      <selection activeCell="A258" sqref="A258:XFD258"/>
+    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="212" zoomScaleNormal="210" zoomScaleSheetLayoutView="33" workbookViewId="0">
+      <selection activeCell="F308" sqref="F308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9949,83 +10544,83 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31">
       <c r="A1" s="18" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="19" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="20" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="21" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="21"/>
     </row>
     <row r="9" spans="1:6" ht="27" thickBot="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10033,33 +10628,33 @@
         <v>44</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="21"/>
     </row>
     <row r="13" spans="1:6" ht="27" thickBot="1">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" s="1" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -10068,12 +10663,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" s="1" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
@@ -10082,12 +10677,12 @@
         <v>2</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="C17" s="14" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>5</v>
@@ -10096,7 +10691,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -10110,7 +10705,7 @@
         <v>55</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -10124,7 +10719,7 @@
         <v>54</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -10135,10 +10730,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -10149,10 +10744,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -10166,7 +10761,7 @@
         <v>53</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -10180,7 +10775,7 @@
         <v>52</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -10191,10 +10786,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -10205,10 +10800,10 @@
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -10222,7 +10817,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -10236,49 +10831,49 @@
         <v>41</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="27" thickBot="1">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" spans="1:6">
       <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="C31" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="C32" s="1" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="C33" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -10286,7 +10881,7 @@
         <v>10</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -10294,7 +10889,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -10302,7 +10897,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -10310,23 +10905,23 @@
         <v>13</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="C38" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="C39" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -10334,15 +10929,15 @@
         <v>51</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="C41" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -10350,44 +10945,44 @@
         <v>65</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="C43" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="C44" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="27" thickBot="1">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="32"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="35"/>
     </row>
     <row r="47" spans="1:6">
       <c r="C47" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -10395,7 +10990,7 @@
         <v>18</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -10403,39 +10998,39 @@
         <v>19</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="C50" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="C51" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="C52" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="C53" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -10443,7 +11038,7 @@
         <v>20</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -10451,25 +11046,25 @@
         <v>25</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="27" thickBot="1">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
     </row>
     <row r="58" spans="1:6">
       <c r="C58" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -10477,23 +11072,23 @@
         <v>33</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="C60" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="C61" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -10501,39 +11096,39 @@
         <v>22</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="C63" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="C64" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="C65" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="C66" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -10541,31 +11136,31 @@
         <v>24</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="C68" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="C69" s="12" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="C70" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -10573,126 +11168,126 @@
         <v>65</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="C72" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="C73" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="C75" s="14" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="C83" s="14" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>5</v>
@@ -10701,7 +11296,7 @@
         <v>26</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -10715,7 +11310,7 @@
         <v>64</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -10726,10 +11321,10 @@
         <v>4</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -10743,7 +11338,7 @@
         <v>63</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -10754,10 +11349,10 @@
         <v>4</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -10768,10 +11363,10 @@
         <v>4</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -10782,36 +11377,36 @@
         <v>4</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="C90" s="3"/>
     </row>
     <row r="91" spans="1:6" ht="27" thickBot="1">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="32"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="35"/>
     </row>
     <row r="92" spans="1:6">
       <c r="C92" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="C94" s="14" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>5</v>
@@ -10820,7 +11415,7 @@
         <v>23</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -10831,10 +11426,10 @@
         <v>4</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -10845,10 +11440,10 @@
         <v>4</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F96" s="15" t="s">
-        <v>368</v>
+        <v>187</v>
+      </c>
+      <c r="F96" s="36" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -10859,10 +11454,10 @@
         <v>4</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -10873,29 +11468,29 @@
         <v>4</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F98" s="15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="C99" s="6" t="s">
+      <c r="F99" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="C100" s="6" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F100" s="15" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -10906,10 +11501,10 @@
         <v>4</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -10920,10 +11515,10 @@
         <v>4</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -10934,10 +11529,10 @@
         <v>4</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -10948,10 +11543,10 @@
         <v>4</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>482</v>
+        <v>61</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -10962,10 +11557,10 @@
         <v>4</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>59</v>
+        <v>471</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -10976,10 +11571,10 @@
         <v>4</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -10990,10 +11585,10 @@
         <v>4</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -11004,10 +11599,10 @@
         <v>4</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -11018,10 +11613,10 @@
         <v>4</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -11031,11 +11626,11 @@
       <c r="B110" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>66</v>
+      <c r="C110" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -11046,29 +11641,29 @@
         <v>4</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>310</v>
+        <v>66</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="C113" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F113" s="23" t="s">
-        <v>242</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="C114" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>5</v>
@@ -11076,78 +11671,78 @@
       <c r="E114" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F114" s="15" t="s">
-        <v>432</v>
+      <c r="F114" s="23" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="C115" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="C116" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F116" s="23" t="s">
-        <v>428</v>
+        <v>38</v>
+      </c>
+      <c r="F116" s="15" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="C117" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F117" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="C118" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F117" s="15" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="C118" s="14" t="s">
+      <c r="F118" s="15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="C119" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D118" s="14" t="s">
+      <c r="D119" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E118" s="14" t="s">
+      <c r="E119" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F118" s="16" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F119" s="15" t="s">
-        <v>483</v>
+      <c r="F119" s="16" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -11157,11 +11752,11 @@
       <c r="B120" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>88</v>
+      <c r="C120" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -11172,10 +11767,10 @@
         <v>4</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>430</v>
+        <v>87</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -11185,11 +11780,11 @@
       <c r="B122" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>89</v>
+      <c r="C122" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>485</v>
+        <v>418</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -11199,11 +11794,11 @@
       <c r="B123" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>90</v>
+      <c r="C123" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F123" s="15" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -11214,10 +11809,10 @@
         <v>4</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>431</v>
+        <v>89</v>
       </c>
       <c r="F124" s="15" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -11228,10 +11823,10 @@
         <v>4</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>91</v>
+        <v>420</v>
       </c>
       <c r="F125" s="15" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -11241,11 +11836,11 @@
       <c r="B126" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>92</v>
+      <c r="C126" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="F126" s="15" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -11255,11 +11850,11 @@
       <c r="B127" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>495</v>
+      <c r="C127" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="F127" s="15" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -11270,10 +11865,10 @@
         <v>4</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>93</v>
+        <v>484</v>
       </c>
       <c r="F128" s="15" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -11284,10 +11879,10 @@
         <v>4</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F129" s="15" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -11298,10 +11893,10 @@
         <v>4</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -11312,10 +11907,10 @@
         <v>4</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -11326,10 +11921,10 @@
         <v>4</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>496</v>
+        <v>95</v>
       </c>
       <c r="F132" s="15" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -11340,10 +11935,10 @@
         <v>4</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -11353,11 +11948,11 @@
       <c r="B134" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>215</v>
+      <c r="C134" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="F134" s="15" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -11368,10 +11963,10 @@
         <v>4</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F135" s="15" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -11381,137 +11976,137 @@
       <c r="B136" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>217</v>
+      <c r="C136" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="F136" s="15" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="C138" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="D138" s="14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F137" s="15" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="C139" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="D139" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E138" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="F138" s="22" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="F139" s="15" t="s">
-        <v>503</v>
+      <c r="E139" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="F139" s="22" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="F140" s="15" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>326</v>
+        <v>435</v>
       </c>
       <c r="F141" s="15" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F142" s="15" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="C144" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D144" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F143" s="15" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="C145" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F144" s="23" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="C145" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="D145" s="26" t="s">
+      <c r="E145" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F145" s="23" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="C146" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="D146" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E145" s="26" t="s">
+      <c r="E146" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F145" s="28" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="C146" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="D146" s="1" t="s">
+      <c r="F146" s="28" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="C147" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F146" s="23" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="F147" s="15" t="s">
-        <v>514</v>
+      <c r="E147" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F147" s="23" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -11522,10 +12117,10 @@
         <v>4</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F148" s="15" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -11535,11 +12130,11 @@
       <c r="B149" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C149" s="5" t="s">
-        <v>318</v>
+      <c r="C149" s="13" t="s">
+        <v>309</v>
       </c>
       <c r="F149" s="15" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -11550,10 +12145,10 @@
         <v>4</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F150" s="15" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -11564,10 +12159,10 @@
         <v>4</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="F151" s="15" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -11578,62 +12173,62 @@
         <v>4</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>519</v>
+        <v>314</v>
       </c>
       <c r="F152" s="15" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="C153" s="3"/>
-    </row>
-    <row r="154" spans="1:6" ht="27" thickBot="1">
-      <c r="A154" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="B154" s="31"/>
-      <c r="C154" s="31"/>
-      <c r="D154" s="31"/>
-      <c r="E154" s="31"/>
-      <c r="F154" s="31"/>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="C155" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F155" s="29" t="s">
-        <v>521</v>
-      </c>
+      <c r="A153" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="F153" s="15" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="1:6" ht="27" thickBot="1">
+      <c r="A155" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="B155" s="34"/>
+      <c r="C155" s="34"/>
+      <c r="D155" s="34"/>
+      <c r="E155" s="34"/>
+      <c r="F155" s="34"/>
     </row>
     <row r="156" spans="1:6">
-      <c r="F156" s="1"/>
+      <c r="C156" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F156" s="29" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="C157" s="14" t="s">
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="C158" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D157" s="14" t="s">
+      <c r="D158" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E157" s="14" t="s">
+      <c r="E158" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F157" s="22" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="F158" s="15" t="s">
-        <v>522</v>
+      <c r="F158" s="22" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -11644,276 +12239,276 @@
         <v>4</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="F159" s="15" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="F160" s="1"/>
+      <c r="A160" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="F160" s="15" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="C161" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="D161" s="14" t="s">
+      <c r="F161" s="1"/>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="C162" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="D162" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E161" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="F161" s="22" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="F162" s="15" t="s">
+      <c r="E162" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="F162" s="22" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="F163" s="15" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C164" s="12" t="s">
-        <v>277</v>
+      <c r="C164" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="F164" s="15" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>528</v>
+        <v>271</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="F165" s="15" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C166" s="8" t="s">
-        <v>275</v>
+      <c r="C166" s="12" t="s">
+        <v>517</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="F166" s="15" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C167" s="25" t="s">
-        <v>529</v>
-      </c>
-      <c r="D167" s="14" t="s">
+      <c r="C167" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E167" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="F167" s="16" t="s">
-        <v>530</v>
+      <c r="E167" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F167" s="15" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1" t="s">
-        <v>527</v>
+        <v>272</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C168" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="F168" s="15" t="s">
-        <v>532</v>
+      <c r="C168" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="D168" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="F168" s="16" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="F169" s="15" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="C170" s="8"/>
+      <c r="A170" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F170" s="15" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="C171" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="D171" s="14" t="s">
+      <c r="C171" s="8"/>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="C172" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="D172" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E171" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="F171" s="22" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C172" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="F172" s="15" t="s">
-        <v>534</v>
+      <c r="E172" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="F172" s="22" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F173" s="15" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C174" s="8" t="s">
-        <v>281</v>
+      <c r="C174" s="12" t="s">
+        <v>432</v>
       </c>
       <c r="F174" s="15" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>444</v>
+        <v>275</v>
       </c>
       <c r="F175" s="15" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="C177" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="D177" s="14" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="F176" s="15" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="C178" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="D178" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E177" s="14" t="s">
+      <c r="E178" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F177" s="22" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F178" s="15" t="s">
-        <v>394</v>
+      <c r="F178" s="22" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -11924,10 +12519,10 @@
         <v>4</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F179" s="15" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -11938,10 +12533,10 @@
         <v>4</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F180" s="15" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -11952,10 +12547,10 @@
         <v>4</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F181" s="15" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -11966,10 +12561,10 @@
         <v>4</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>257</v>
+        <v>104</v>
       </c>
       <c r="F182" s="15" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -11980,10 +12575,10 @@
         <v>4</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>106</v>
+        <v>251</v>
       </c>
       <c r="F183" s="15" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -11994,10 +12589,10 @@
         <v>4</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F184" s="15" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -12008,10 +12603,10 @@
         <v>4</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F185" s="15" t="s">
-        <v>539</v>
+        <v>396</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -12022,10 +12617,10 @@
         <v>4</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F186" s="15" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -12035,11 +12630,11 @@
       <c r="B187" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C187" s="7" t="s">
-        <v>110</v>
+      <c r="C187" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="F187" s="15" t="s">
-        <v>376</v>
+        <v>529</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -12049,248 +12644,257 @@
       <c r="B188" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C188" s="1" t="s">
-        <v>111</v>
+      <c r="C188" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="F188" s="15" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="C189" s="8"/>
+      <c r="A189" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F189" s="15" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="C190" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="D190" s="14" t="s">
+      <c r="C190" s="8"/>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="C191" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D191" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E190" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="F190" s="16"/>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C191" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="F191" s="15" t="s">
-        <v>409</v>
-      </c>
+      <c r="E191" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F191" s="16"/>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C192" s="3" t="s">
-        <v>211</v>
+      <c r="C192" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="F192" s="15" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F193" s="15" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="F194" s="15" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C195" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="D195" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E195" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="F195" s="16" t="s">
-        <v>378</v>
+      <c r="C195" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F195" s="15" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F196" s="15" t="s">
-        <v>412</v>
+      <c r="C196" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D196" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E196" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F196" s="16" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C197" s="3" t="s">
-        <v>213</v>
+      <c r="C197" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="F197" s="15" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F198" s="15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F198" s="15" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="27" thickBot="1">
-      <c r="A200" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="B200" s="31"/>
-      <c r="C200" s="31"/>
-      <c r="D200" s="31"/>
-      <c r="E200" s="31"/>
-      <c r="F200" s="32"/>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="C201" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F201" s="15" t="s">
-        <v>587</v>
-      </c>
-      <c r="G201" t="s">
-        <v>574</v>
-      </c>
+      <c r="F199" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="27" thickBot="1">
+      <c r="A201" s="34" t="s">
+        <v>597</v>
+      </c>
+      <c r="B201" s="34"/>
+      <c r="C201" s="34"/>
+      <c r="D201" s="34"/>
+      <c r="E201" s="34"/>
+      <c r="F201" s="35"/>
     </row>
     <row r="202" spans="1:7">
       <c r="C202" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F202" s="15" t="s">
-        <v>340</v>
+        <v>569</v>
+      </c>
+      <c r="G202" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="C203" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F203" s="15" t="s">
-        <v>341</v>
+        <v>331</v>
+      </c>
+      <c r="G203" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="C204" s="1" t="s">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="F204" s="15" t="s">
-        <v>342</v>
+        <v>332</v>
+      </c>
+      <c r="G204" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="C205" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F205" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="C207" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F207" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>574</v>
+        <v>333</v>
+      </c>
+      <c r="G205" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="C206" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F206" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="G206" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="C208" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E208" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F208" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="C209" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E209" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F208" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>590</v>
-      </c>
       <c r="F209" s="15" t="s">
-        <v>307</v>
+        <v>586</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -12301,13 +12905,13 @@
         <v>4</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="F210" s="15" t="s">
-        <v>308</v>
+        <v>576</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -12317,1688 +12921,2092 @@
       <c r="B211" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>172</v>
+      <c r="C211" s="4" t="s">
+        <v>573</v>
       </c>
       <c r="F211" s="15" t="s">
-        <v>309</v>
+        <v>577</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
-      <c r="C213" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D213" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F212" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="C214" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E213" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="F213" s="23" t="s">
-        <v>577</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
-      <c r="A214" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C214" s="35" t="s">
-        <v>576</v>
-      </c>
-      <c r="F214" s="15" t="s">
-        <v>580</v>
+      <c r="E214" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F214" s="23" t="s">
+        <v>561</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="1" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>582</v>
+      <c r="C215" s="31" t="s">
+        <v>560</v>
       </c>
       <c r="F215" s="15" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>574</v>
-      </c>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F216" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="G217" s="1"/>
     </row>
     <row r="218" spans="1:7">
       <c r="C218" s="1" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E218" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F218" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="G218" s="1"/>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C219" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F218" s="15" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
-      <c r="C219" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="F219" s="15" t="s">
-        <v>571</v>
+        <v>75</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="1" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C220" s="1" t="s">
-        <v>177</v>
+      <c r="C220" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="F220" s="15" t="s">
-        <v>180</v>
+        <v>76</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="1" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>178</v>
+      <c r="C221" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="F221" s="15" t="s">
-        <v>181</v>
+        <v>142</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="1" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>179</v>
+        <v>567</v>
       </c>
       <c r="F222" s="15" t="s">
-        <v>182</v>
+        <v>574</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="223" spans="1:7">
-      <c r="C223" s="3"/>
+      <c r="A223" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F223" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="224" spans="1:7">
-      <c r="C224" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>29</v>
+      <c r="A224" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="F224" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C225" s="1" t="s">
-        <v>88</v>
+      <c r="C225" s="3" t="s">
+        <v>603</v>
       </c>
       <c r="F225" s="15" t="s">
-        <v>305</v>
+        <v>602</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>82</v>
+        <v>252</v>
       </c>
       <c r="F226" s="15" t="s">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="G226" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="G227" s="1"/>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="G228" s="1"/>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="G229" s="1"/>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="G230" s="1"/>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="C232" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F232" s="15" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F233" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F234" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F235" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F236" s="15" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F227" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
-      <c r="A228" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F228" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F229" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="G229" s="1" t="s">
+      <c r="G236" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F237" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F238" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F239" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F230" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="G230" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
-      <c r="C234" s="2"/>
-    </row>
-    <row r="235" spans="1:7">
-      <c r="C235" s="2"/>
-    </row>
-    <row r="237" spans="1:7" ht="27" thickBot="1">
-      <c r="A237" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="B237" s="31"/>
-      <c r="C237" s="31"/>
-      <c r="D237" s="31"/>
-      <c r="E237" s="31"/>
-      <c r="F237" s="32"/>
-    </row>
-    <row r="240" spans="1:7">
-      <c r="C240" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F240" s="15" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="C241" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F241" s="15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="C242" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F242" s="15" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
+        <v>253</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="C243" s="1" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E243" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F243" s="15" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="C244" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F244" s="15" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F245" s="15" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F246" s="15" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F247" s="15" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="C249" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F249" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F250" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F251" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F252" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F253" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F254" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F255" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F256" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="C260" s="2"/>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="C261" s="2"/>
+    </row>
+    <row r="263" spans="1:6" ht="27" thickBot="1">
+      <c r="A263" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B263" s="34"/>
+      <c r="C263" s="34"/>
+      <c r="D263" s="34"/>
+      <c r="E263" s="34"/>
+      <c r="F263" s="35"/>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="C266" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F266" s="15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="C267" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F267" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="C268" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F268" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="C269" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E269" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F243" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C244" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F244" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="A245" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C245" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F245" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="A246" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F246" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="A247" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F247" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F248" s="15" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="A249" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F249" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
-      <c r="A250" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F250" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
-      <c r="A251" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F251" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
-      <c r="A252" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F252" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
-      <c r="A253" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F253" s="15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
-      <c r="C254" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F254" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
-      <c r="A255" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F255" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
-      <c r="A256" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F256" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
-      <c r="A257" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F257" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="A258" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="F258" s="15" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
-      <c r="A259" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="F259" s="15" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
-      <c r="A260" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F260" s="15" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
-      <c r="A261" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F261" s="15" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
-      <c r="A262" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F262" s="15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
-      <c r="C264" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F264" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
-      <c r="A265" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F265" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
-      <c r="A266" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F266" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
-      <c r="A267" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F267" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6">
-      <c r="A268" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="F268" s="15" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
-      <c r="A269" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>586</v>
-      </c>
       <c r="F269" s="15" t="s">
-        <v>408</v>
+        <v>160</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="1" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C270" s="3" t="s">
-        <v>230</v>
+      <c r="C270" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="F270" s="15" t="s">
-        <v>334</v>
+        <v>123</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="1" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C271" s="3" t="s">
-        <v>228</v>
+      <c r="C271" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="F271" s="15" t="s">
-        <v>335</v>
+        <v>125</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F272" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F273" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F274" s="15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F275" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F276" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F277" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F278" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F279" s="15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="C280" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F280" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G280" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F272" s="15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6">
-      <c r="C273" s="1" t="s">
+      <c r="F281" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G281" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F282" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G282" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F283" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G283" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F284" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="G284" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F285" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="G285" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F286" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="G286" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F287" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="G287" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F288" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="G288" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="C290" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F290" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F291" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F292" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F293" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F294" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="F295" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F296" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F297" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F298" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="C299" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F273" s="15" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6">
-      <c r="C274" s="1" t="s">
+      <c r="F299" s="15" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="C300" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F274" s="15" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6">
-      <c r="C276" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F276" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
-      <c r="C279" s="1" t="s">
+      <c r="F300" s="15" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="C302" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F302" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="C305" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F279" s="15" t="s">
+      <c r="F305" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
-      <c r="A280" s="1" t="s">
+    <row r="306" spans="1:6">
+      <c r="A306" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B280" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F280" s="15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
-      <c r="A281" s="1" t="s">
+      <c r="B306" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F306" s="15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B281" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C281" s="4" t="s">
+      <c r="B307" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C307" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F281" s="15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
-      <c r="A282" s="1" t="s">
+      <c r="F307" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B282" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C282" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D282" s="9"/>
-      <c r="E282" s="9"/>
-      <c r="F282" s="17" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" ht="27" thickBot="1">
-      <c r="A284" s="31" t="s">
-        <v>448</v>
-      </c>
-      <c r="B284" s="31"/>
-      <c r="C284" s="31"/>
-      <c r="D284" s="31"/>
-      <c r="E284" s="31"/>
-      <c r="F284" s="32"/>
-    </row>
-    <row r="285" spans="1:6">
-      <c r="C285" s="1" t="s">
+      <c r="B308" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C308" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D308" s="9"/>
+      <c r="E308" s="9"/>
+      <c r="F308" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="27" thickBot="1">
+      <c r="A310" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="B310" s="34"/>
+      <c r="C310" s="34"/>
+      <c r="D310" s="34"/>
+      <c r="E310" s="34"/>
+      <c r="F310" s="35"/>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="C311" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E311" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D285" s="1" t="s">
+      <c r="F311" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F312" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F313" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F314" s="15" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F315" s="15" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F316" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F317" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="C319" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D319" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E285" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F285" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
-      <c r="A286" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F286" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6">
-      <c r="A287" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F287" s="15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6">
-      <c r="A288" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F288" s="15" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6">
-      <c r="A289" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F289" s="15" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6">
-      <c r="A290" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F290" s="15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6">
-      <c r="A291" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F291" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6">
-      <c r="C293" s="1" t="s">
+      <c r="E319" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F319" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D293" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E293" s="1" t="s">
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F293" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
-      <c r="A294" s="1" t="s">
+      <c r="B320" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F320" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B294" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F294" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6">
-      <c r="A295" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F295" s="15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
-      <c r="A296" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F296" s="15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6">
-      <c r="A297" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F297" s="15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6">
-      <c r="A298" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F298" s="15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6">
-      <c r="A299" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F299" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6">
-      <c r="A300" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F300" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6">
-      <c r="A301" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F301" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
-      <c r="A302" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F302" s="15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6">
-      <c r="A303" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F303" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
-      <c r="A304" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F304" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="309" spans="3:6">
-      <c r="C309" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F309" s="15" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="310" spans="3:6">
-      <c r="C310" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F310" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="311" spans="3:6">
-      <c r="C311" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F311" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="312" spans="3:6">
-      <c r="C312" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F312" s="15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="313" spans="3:6">
-      <c r="C313" s="3"/>
-    </row>
-    <row r="314" spans="3:6">
-      <c r="C314" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F314" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="315" spans="3:6">
-      <c r="C315" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F315" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="317" spans="3:6">
-      <c r="C317" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F317" s="15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="318" spans="3:6">
-      <c r="C318" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F318" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="319" spans="3:6">
-      <c r="C319" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F319" s="15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="320" spans="3:6">
-      <c r="C320" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F320" s="15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6">
-      <c r="C321" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D321" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>299</v>
+      <c r="B321" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="F321" s="15" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="1" t="s">
-        <v>299</v>
+        <v>3</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C322" s="3" t="s">
-        <v>193</v>
+      <c r="C322" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="F322" s="15" t="s">
-        <v>139</v>
+        <v>323</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="1" t="s">
-        <v>299</v>
+        <v>3</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C323" s="1" t="s">
-        <v>560</v>
+      <c r="C323" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="F323" s="15" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="1" t="s">
-        <v>299</v>
+        <v>3</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>561</v>
+        <v>220</v>
       </c>
       <c r="F324" s="15" t="s">
-        <v>294</v>
+        <v>221</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="1" t="s">
-        <v>299</v>
+        <v>3</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>562</v>
+        <v>152</v>
       </c>
       <c r="F325" s="15" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" ht="27" thickBot="1">
-      <c r="A328" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="B328" s="31"/>
-      <c r="C328" s="31"/>
-      <c r="D328" s="31"/>
-      <c r="E328" s="31"/>
-      <c r="F328" s="32"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F326" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F327" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F328" s="15" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="329" spans="1:6">
-      <c r="C329" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>232</v>
+      <c r="A329" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="F329" s="15" t="s">
-        <v>233</v>
+        <v>154</v>
       </c>
     </row>
     <row r="330" spans="1:6">
-      <c r="C330" s="1" t="s">
-        <v>236</v>
+      <c r="A330" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="F330" s="15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6">
-      <c r="C331" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F331" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6">
-      <c r="C332" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F332" s="15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6">
-      <c r="C333" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F333" s="15" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6">
-      <c r="C334" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F334" s="15" t="s">
-        <v>241</v>
+        <v>154</v>
       </c>
     </row>
     <row r="335" spans="1:6">
       <c r="C335" s="1" t="s">
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="F335" s="15" t="s">
-        <v>242</v>
+        <v>321</v>
       </c>
     </row>
     <row r="336" spans="1:6">
-      <c r="C336" s="1" t="s">
-        <v>250</v>
+      <c r="C336" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="F336" s="15" t="s">
-        <v>243</v>
+        <v>123</v>
       </c>
     </row>
     <row r="337" spans="1:6">
-      <c r="C337" s="1" t="s">
-        <v>251</v>
+      <c r="C337" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="F337" s="15" t="s">
-        <v>244</v>
+        <v>125</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="C338" s="3" t="s">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="F338" s="15" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
     </row>
     <row r="339" spans="1:6">
-      <c r="C339" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F339" s="15" t="s">
-        <v>253</v>
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="C340" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F340" s="15" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="341" spans="1:6">
       <c r="C341" s="1" t="s">
-        <v>262</v>
+        <v>141</v>
       </c>
       <c r="F341" s="15" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
-      <c r="C342" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F342" s="15" t="s">
-        <v>265</v>
+        <v>142</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="C343" s="1" t="s">
-        <v>266</v>
+        <v>136</v>
       </c>
       <c r="F343" s="15" t="s">
-        <v>267</v>
+        <v>329</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="C344" s="1" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="F344" s="15" t="s">
-        <v>269</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="C345" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F345" s="15" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="346" spans="1:6">
       <c r="C346" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" ht="27" thickBot="1">
-      <c r="A349" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="B349" s="31"/>
-      <c r="C349" s="31"/>
-      <c r="D349" s="31"/>
-      <c r="E349" s="31"/>
-      <c r="F349" s="32"/>
+        <v>195</v>
+      </c>
+      <c r="F346" s="15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="C347" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F347" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F348" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F349" s="15" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="350" spans="1:6">
-      <c r="C350" s="1" t="s">
-        <v>285</v>
+      <c r="A350" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>549</v>
       </c>
       <c r="F350" s="15" t="s">
-        <v>567</v>
+        <v>287</v>
       </c>
     </row>
     <row r="351" spans="1:6">
-      <c r="C351" s="26"/>
-      <c r="D351" s="26"/>
-      <c r="E351" s="26"/>
-      <c r="F351" s="28"/>
-    </row>
-    <row r="352" spans="1:6">
-      <c r="C352" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="D352" s="14" t="s">
+      <c r="A351" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F351" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="27" thickBot="1">
+      <c r="A354" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="B354" s="34"/>
+      <c r="C354" s="34"/>
+      <c r="D354" s="34"/>
+      <c r="E354" s="34"/>
+      <c r="F354" s="35"/>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="C355" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D355" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E352" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F352" s="22" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6">
-      <c r="A353" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C353" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F353" s="15" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6">
-      <c r="C355" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="D355" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E355" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F355" s="16" t="s">
-        <v>555</v>
+      <c r="E355" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F355" s="15" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="356" spans="1:6">
-      <c r="A356" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C356" s="8" t="s">
-        <v>300</v>
+      <c r="C356" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="F356" s="15" t="s">
-        <v>553</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="C357" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F357" s="15" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="358" spans="1:6">
       <c r="C358" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D358" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F358" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="C359" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F359" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="C360" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F360" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="C361" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F361" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="C362" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F362" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="C363" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F363" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="C364" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F364" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="C365" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F365" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="C367" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F367" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="C368" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F368" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="C369" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F369" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="C370" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F370" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="C372" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="27" thickBot="1">
+      <c r="A375" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="B375" s="34"/>
+      <c r="C375" s="34"/>
+      <c r="D375" s="34"/>
+      <c r="E375" s="34"/>
+      <c r="F375" s="35"/>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="C376" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F376" s="15" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="C377" s="26"/>
+      <c r="D377" s="26"/>
+      <c r="E377" s="26"/>
+      <c r="F377" s="28"/>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="C378" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="D378" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E358" s="1" t="s">
+      <c r="E378" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F378" s="22" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F379" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="C381" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="D381" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E381" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F381" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C382" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F382" s="15" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="C384" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F358" s="23" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6">
-      <c r="C359" s="14" t="s">
-        <v>548</v>
-      </c>
-      <c r="D359" s="14" t="s">
+      <c r="D384" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E359" s="14" t="s">
+      <c r="E384" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F384" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="C385" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="D385" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E385" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F385" s="22" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C386" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F386" s="15" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F387" s="15" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C388" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="F388" s="15" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C389" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="F389" s="15" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C390" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="F390" s="15" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="F391" s="15" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C392" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="F392" s="15" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C393" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F393" s="15" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C394" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F394" s="15" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="C395" s="8"/>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="C396" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D396" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E396" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="F396" s="22" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F397" s="15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F398" s="15" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C399" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F359" s="22" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6">
-      <c r="A360" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C360" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="F360" s="15" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6">
-      <c r="A361" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F361" s="15" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6">
-      <c r="A362" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C362" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="F362" s="15" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6">
-      <c r="A363" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C363" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="F363" s="15" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6">
-      <c r="A364" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C364" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="F364" s="15" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6">
-      <c r="A365" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C365" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="F365" s="15" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6">
-      <c r="A366" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C366" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="F366" s="15" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6">
-      <c r="A367" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C367" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="F367" s="15" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6">
-      <c r="A368" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C368" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="F368" s="15" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7">
-      <c r="C369" s="8"/>
-    </row>
-    <row r="370" spans="1:7">
-      <c r="C370" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D370" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E370" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="F370" s="22" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7">
-      <c r="A371" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F371" s="15" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7">
-      <c r="A372" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F372" s="15" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7">
-      <c r="A373" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F373" s="15" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7">
-      <c r="G375" s="30"/>
-    </row>
-    <row r="376" spans="1:7">
-      <c r="G376" s="30"/>
-    </row>
-    <row r="377" spans="1:7">
-      <c r="G377" s="30"/>
-    </row>
-    <row r="378" spans="1:7">
-      <c r="G378" s="30"/>
+      <c r="F399" s="15" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="401" spans="7:7">
+      <c r="G401" s="30"/>
+    </row>
+    <row r="402" spans="7:7">
+      <c r="G402" s="30"/>
+    </row>
+    <row r="403" spans="7:7">
+      <c r="G403" s="30"/>
+    </row>
+    <row r="404" spans="7:7">
+      <c r="G404" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A328:F328"/>
-    <mergeCell ref="A284:F284"/>
-    <mergeCell ref="A237:F237"/>
-    <mergeCell ref="A200:F200"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A349:F349"/>
+    <mergeCell ref="A375:F375"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A354:F354"/>
+    <mergeCell ref="A310:F310"/>
+    <mergeCell ref="A263:F263"/>
+    <mergeCell ref="A201:F201"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A155:F155"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/git-terminal-keyboard-shortcuts.xlsx
+++ b/git-terminal-keyboard-shortcuts.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Smith/GIT/steveos-git-shortcuts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Goofy/GIT/steves-git-shortcuts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ACFF06-25A6-AA46-8220-282B7AA79B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19BEB1E-9F84-9C46-9547-9913D2C1410D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14540" yWindow="0" windowWidth="32640" windowHeight="28800" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
+    <workbookView xWindow="25400" yWindow="460" windowWidth="25780" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$57:$F$351</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$59:$F$354</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="613">
   <si>
     <t>Configuration</t>
   </si>
@@ -1864,9 +1864,6 @@
     <t>Show local branches</t>
   </si>
   <si>
-    <t>⌘ + K</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">git add </t>
     </r>
@@ -1971,20 +1968,6 @@
         <rFont val="Menlo Regular"/>
       </rPr>
       <t>required option</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git config --global core.excludesfile </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>~/.gitignore</t>
     </r>
   </si>
   <si>
@@ -6224,28 +6207,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Define default </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>editor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and open when editor is required</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Set use of </t>
     </r>
     <r>
@@ -8508,8 +8469,1169 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Sets initial default </t>
+    <t>Interactive rebase</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>rebase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> (-i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Menlo Italic"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> --interactive) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>required option</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Skip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a commit (allows the existing commit to apply)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Abort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a rebase (rebase is not applied)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Continue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to next commit after conflict resolution</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rebase to a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>non-linear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> branch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Undo a simple rebase where the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>ORIG_HEAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is unchanged</t>
+    </r>
+  </si>
+  <si>
+    <t>git reset</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rebase to a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>SHA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> commit (can also be used to reverse a rebase)</t>
+    </r>
+  </si>
+  <si>
+    <t>--amend</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Amend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the current commit in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>interactive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> mode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rebase to an inherited </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Bold Italic"/>
+      </rPr>
+      <t>SHA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (commonly used with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>-i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to ammend comitts locally)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>-r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>--rebase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>--rebase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>=preserve</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>--rebase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>=interactive</t>
+    </r>
+  </si>
+  <si>
+    <t>Pull</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fetch from a remote and rebase </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>local changes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fetch and rebase but </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>preserve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> local commits on the branch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fetch and rebase in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>interactive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> mode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gives the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>SHA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of the point of divergence of the branches</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ls (-la </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Menlo Italic"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> -a)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git restore --source </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>required option</t>
+    </r>
+  </si>
+  <si>
+    <t>[rc]</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>SHA filepath/filename</t>
+  </si>
+  <si>
+    <t>Restore from commit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-o </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>folder_name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">--stdout &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>new_filepath/filename.patch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Menlo Italic"/>
+      </rPr>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">-2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Italic"/>
+      </rPr>
+      <t>filepath/filename</t>
+    </r>
+  </si>
+  <si>
+    <t>Compare differences between 2 branches</t>
+  </si>
+  <si>
+    <t>Compare differences in a range of branches</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Menlo Italic"/>
+      </rPr>
+      <t>filepath/filename</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>SHA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Menlo Italic"/>
+      </rPr>
+      <t>filepath/filename</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Revert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> changes of a commit (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Bold Italic"/>
+      </rPr>
+      <t>SHA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>) and opens the editor. results in 2nd commit</t>
+    </r>
+  </si>
+  <si>
+    <t>Rename a remote branch</t>
+  </si>
+  <si>
+    <t>Remove (delete) a remote branch</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">filepath/filename </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>filepath/filename</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>filepath/filename string</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Checkout file changes of current branch from working file to original state</t>
+  </si>
+  <si>
+    <t>Restore file changes of current branch from working file to original state</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specific </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> changes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specific files changes using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>wildcard</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>All</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> files changes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specific </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>commit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Commit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>ancestry</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>All</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> commits</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reset </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> changes from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>staging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> back to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>working</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> directory</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Checkout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> file changes from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>staging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> back to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>work file</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Checkout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> file changes from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>work file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>original state</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Restore file changes from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>work file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>original state</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Restore file changes from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>staging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> back to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>work file</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Restore file changes from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>another commit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Bold Italic"/>
+      </rPr>
+      <t>SHA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reset the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>HEAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>tree-ish</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reset the HEAD to a tree-ish and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>matches stage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reset the HEAD to a tree-ish and matches </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>stage and work</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reset files changes for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>patch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from staging back to working directory</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Undo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a simple </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>rebase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> where the ORIG_HEAD is unchanged</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Checkout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (superseded by switch)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Display statistics logs of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>all branches</t>
+    </r>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Restore file changes from a commit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>ancestry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of </t>
     </r>
     <r>
       <rPr>
@@ -8519,182 +9641,17 @@
       </rPr>
       <t>main</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> branch name</t>
-    </r>
-  </si>
-  <si>
-    <t>Interactive rebase</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>rebase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> (-i </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Menlo Italic"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> --interactive) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>required option</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>Skip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a commit (allows the existing commit to apply)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>Abort</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a rebase (rebase is not applied)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>Continue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to next commit after conflict resolution</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rebase to a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>non-linear</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> branch</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Undo a simple rebase where the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>ORIG_HEAD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is unchanged</t>
-    </r>
-  </si>
-  <si>
-    <t>git reset</t>
-  </si>
-  <si>
-    <t>Reset</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rebase to a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+  </si>
+  <si>
+    <t>Restore, Switch, Reset and Revert</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
       </rPr>
       <t>SHA</t>
     </r>
@@ -8702,373 +9659,16 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> commit (can also be used to reverse a rebase)</t>
-    </r>
-  </si>
-  <si>
-    <t>--amend</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>Amend</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> the current commit in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>interactive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> mode</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rebase to an inherited </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Menlo Bold Italic"/>
-      </rPr>
-      <t>SHA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (commonly used with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>-i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to ammend comitts locally)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>-r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
         <rFont val="Menlo Regular"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>--rebase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>--rebase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>=preserve</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>--rebase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>=interactive</t>
-    </r>
-  </si>
-  <si>
-    <t>Pull</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">fetch from a remote and rebase </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>local changes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">fetch and rebase but </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>preserve</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> local commits on the branch</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">fetch and rebase in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>interactive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> mode</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gives the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>SHA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> of the point of divergence of the branches</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ls (-la </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Menlo Italic"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> -a)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git restore --source </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>required option</t>
-    </r>
-  </si>
-  <si>
-    <t>[rc]</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>SHA filepath/filename</t>
-  </si>
-  <si>
-    <t>Restore from commit</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-o </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>folder_name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">--stdout &gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>new_filepath/filename.patch</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Menlo Italic"/>
-      </rPr>
-      <t>main</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">-2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Menlo Italic"/>
-      </rPr>
-      <t>filepath/filename</t>
-    </r>
-  </si>
-  <si>
-    <t>Compare differences between 2 branches</t>
-  </si>
-  <si>
-    <t>Compare differences in a range of branches</t>
-  </si>
-  <si>
-    <r>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
       <t xml:space="preserve">-- </t>
     </r>
     <r>
@@ -9083,259 +9683,96 @@
   <si>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>--hard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>branch_name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Hard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> reset current state to a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>branch</t>
+    </r>
+  </si>
+  <si>
+    <t>Restore changes from a commit directly to current work file</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create an orphaned commit from a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>tree-ish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> reference (detached HEAD)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <i/>
         <sz val="9"/>
         <color theme="4"/>
         <rFont val="Menlo Regular"/>
       </rPr>
-      <t>SHA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> -- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Menlo Italic"/>
-      </rPr>
-      <t>filepath/filename</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>Revert</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> changes of a commit (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Menlo Bold Italic"/>
-      </rPr>
-      <t>SHA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>) and opens the editor. results in 2nd commit</t>
-    </r>
-  </si>
-  <si>
-    <t>Rename a remote branch</t>
-  </si>
-  <si>
-    <t>Remove (delete) a remote branch</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">filepath/filename </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>filepath/filename</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>filepath/filename string</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Checkout file changes of current branch from working file to original state</t>
-  </si>
-  <si>
-    <t>Restore file changes of current branch from working file to original state</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specific </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>files</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> changes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specific files changes using </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>wildcard</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>All</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> files changes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specific </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>commit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Commit </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>ancestry</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>All</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> commits</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Reset </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> changes from </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>staging</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> back to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>working</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> directory</t>
-    </r>
+      <t>tree-ish</t>
+    </r>
+  </si>
+  <si>
+    <t>Switch (replaces checkout)</t>
   </si>
   <si>
     <r>
@@ -9353,346 +9790,37 @@
         <rFont val="Arial Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> file changes from </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>staging</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> back to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>work file</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>Checkout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> file changes from </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>work file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>original state</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Restore file changes from </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>work file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>original state</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Restore file changes from </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>staging</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> back to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>work file</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Restore file changes from </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>another commit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Menlo Bold Italic"/>
-      </rPr>
-      <t>SHA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Reset the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>HEAD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>tree-ish</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Reset the HEAD to a tree-ish and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>matches stage</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Reset the HEAD to a tree-ish and matches </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>stage and work</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Reset files changes for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>patch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> from staging back to working directory</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>Undo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a simple </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>rebase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> where the ORIG_HEAD is unchanged</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>Checkout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (superseded by switch)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Display statistics logs of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>all branches</t>
-    </r>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Restore file changes from a commit </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>ancestry</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> of </t>
+      <t xml:space="preserve"> (replaced by switch)</t>
+    </r>
+  </si>
+  <si>
+    <t>core.excludesfile ~/.gitignore</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Define default </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>editor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and open when editor is required (recommended)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sets initial default </t>
     </r>
     <r>
       <rPr>
@@ -9702,61 +9830,28 @@
       </rPr>
       <t>main</t>
     </r>
-  </si>
-  <si>
-    <t>Restore, Switch, Reset and Revert</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>SHA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Menlo Italic"/>
-      </rPr>
-      <t>filepath/filename</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>--hard</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> branch name (recommended)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git remote </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>origin</t>
     </r>
     <r>
       <rPr>
@@ -9765,93 +9860,104 @@
         <color rgb="FF0070C0"/>
         <rFont val="Menlo Regular"/>
       </rPr>
-      <t>branch_name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>Hard</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> reset current state to a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>branch</t>
-    </r>
-  </si>
-  <si>
-    <t>Restore changes from a commit directly to current work file</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Create an orphaned commit from a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>tree-ish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> reference (detached HEAD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>tree-ish</t>
-    </r>
-  </si>
-  <si>
-    <t>Switch (replaces checkout)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Menlo Bold"/>
-      </rPr>
-      <t>Checkout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (replaced by switch)</t>
+      <t xml:space="preserve"> remote_url</t>
+    </r>
+  </si>
+  <si>
+    <t>Update a repo URL</t>
+  </si>
+  <si>
+    <t>Shell Command: Install 'code' command in PATH</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">core.editor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"code --wait</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>visual studio code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as default editor + below</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sets command PATH in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>visual studio code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF303030"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>⌘⇧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF303030"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>K</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>⌘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>K</t>
     </r>
   </si>
 </sst>
@@ -9859,7 +9965,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44">
+  <fonts count="50">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10121,6 +10227,36 @@
       <color rgb="FF00B050"/>
       <name val="Menlo Regular"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Menlo Italic"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF303030"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF303030"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF303030"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo Regular"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -10166,10 +10302,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10180,9 +10317,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -10204,13 +10338,16 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" xr:uid="{ACEF5201-9FF9-AD44-AA4C-60ABCDBD9D8F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10526,177 +10663,185 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G404"/>
+  <dimension ref="A1:G407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="212" zoomScaleNormal="210" zoomScaleSheetLayoutView="33" workbookViewId="0">
-      <selection activeCell="F308" sqref="F308"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="33" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="2" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.1640625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31">
-      <c r="A1" s="18" t="s">
-        <v>369</v>
+      <c r="A1" s="17" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="19" t="s">
-        <v>372</v>
+      <c r="A4" s="18" t="s">
+        <v>370</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>373</v>
+      <c r="A5" s="10" t="s">
+        <v>371</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="20" t="s">
-        <v>374</v>
+      <c r="A6" s="19" t="s">
+        <v>372</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="21" t="s">
-        <v>375</v>
+      <c r="A7" s="20" t="s">
+        <v>373</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="21"/>
+      <c r="A8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="27" thickBot="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>441</v>
+      <c r="F10" s="14" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>442</v>
+      <c r="F11" s="14" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="21"/>
+      <c r="A12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="27" thickBot="1">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="C14" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>443</v>
+      <c r="C14" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="C16" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="C17" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>408</v>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="32" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>4</v>
@@ -10704,13 +10849,13 @@
       <c r="C18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>409</v>
+      <c r="F18" s="14" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>4</v>
@@ -10718,8 +10863,8 @@
       <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>410</v>
+      <c r="F19" s="14" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -10730,10 +10875,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>497</v>
+        <v>493</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -10744,10 +10889,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>499</v>
+        <v>495</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -10758,10 +10903,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>411</v>
+        <v>52</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -10772,10 +10917,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>412</v>
+        <v>196</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -10786,10 +10931,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>413</v>
+        <v>530</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -10799,11 +10944,11 @@
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>534</v>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -10813,11 +10958,11 @@
       <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>414</v>
+      <c r="C26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -10827,504 +10972,498 @@
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="27" thickBot="1">
-      <c r="A29" s="34" t="s">
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="C28" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17">
+      <c r="A29" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="27" thickBot="1">
+      <c r="A31" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="C30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="C31" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>444</v>
-      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
     </row>
     <row r="32" spans="1:6">
       <c r="C32" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>452</v>
+        <v>9</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="C33" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>446</v>
+        <v>156</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="C34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>447</v>
+        <v>552</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="C35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>448</v>
+        <v>155</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="C36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>449</v>
+        <v>10</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="C37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>450</v>
+        <v>11</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="C38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>451</v>
+        <v>12</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="C39" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>453</v>
+      <c r="C39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="C40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="C41" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>455</v>
+        <v>109</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17">
+      <c r="C41" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="C42" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>456</v>
+        <v>51</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="C43" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="C44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="C45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="C46" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F44" s="15" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" ht="27" thickBot="1">
-      <c r="A46" s="34" t="s">
+      <c r="F46" s="14" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="20"/>
+    </row>
+    <row r="48" spans="1:6" ht="27" thickBot="1">
+      <c r="A48" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="35"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="C47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="C48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>461</v>
-      </c>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="34"/>
     </row>
     <row r="49" spans="1:6">
       <c r="C49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>462</v>
+        <v>17</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="C50" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>463</v>
+        <v>18</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="C51" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>464</v>
+        <v>19</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="C52" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>465</v>
+        <v>301</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="C53" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>466</v>
+        <v>302</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="C54" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="C55" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="C56" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F54" s="15" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="C55" s="3" t="s">
+      <c r="F56" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="C57" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="15" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="27" thickBot="1">
-      <c r="A57" s="34" t="s">
+      <c r="F57" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="27" thickBot="1">
+      <c r="A59" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="C58" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="C59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>332</v>
-      </c>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
     </row>
     <row r="60" spans="1:6">
       <c r="C60" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>333</v>
+        <v>34</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="C61" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>334</v>
+        <v>33</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="C62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>335</v>
+        <v>182</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="C63" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>337</v>
+        <v>181</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="C64" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>338</v>
+        <v>22</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="C65" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>336</v>
+        <v>98</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="C66" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>339</v>
+        <v>96</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="C67" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="C68" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="C69" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F67" s="15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="C68" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="C69" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="F69" s="15" t="s">
-        <v>341</v>
+      <c r="F69" s="14" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="C70" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F70" s="15" t="s">
-        <v>342</v>
+      <c r="C70" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="C71" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>343</v>
+      <c r="C71" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="C72" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>344</v>
+        <v>215</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="C73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="C74" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="C75" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F73" s="15" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="C75" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="D75" s="14" t="s">
+      <c r="F75" s="14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="C77" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D77" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="F75" s="22" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>348</v>
+      <c r="E77" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>348</v>
+        <v>162</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>377</v>
+        <v>167</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F80" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="F80" s="14" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>347</v>
+        <v>161</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="C83" s="14" t="s">
+      <c r="A83" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="C85" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" s="21" t="s">
         <v>378</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F83" s="22" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F85" s="15" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -11335,10 +11474,10 @@
         <v>4</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F86" s="15" t="s">
-        <v>351</v>
+        <v>64</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -11349,10 +11488,10 @@
         <v>4</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F87" s="15" t="s">
-        <v>352</v>
+        <v>292</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -11363,10 +11502,10 @@
         <v>4</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>353</v>
+        <v>63</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -11377,73 +11516,73 @@
         <v>4</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F89" s="15" t="s">
-        <v>354</v>
+        <v>293</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="C90" s="3"/>
-    </row>
-    <row r="91" spans="1:6" ht="27" thickBot="1">
-      <c r="A91" s="34" t="s">
+      <c r="A90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" ht="27" thickBot="1">
+      <c r="A93" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="35"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="C92" s="1" t="s">
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="34"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="C94" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F92" s="15" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="C94" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="D94" s="14" t="s">
+      <c r="F94" s="14" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="C96" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D96" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="14" t="s">
+      <c r="E96" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F94" s="16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F95" s="15" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F96" s="36" t="s">
-        <v>594</v>
+      <c r="F96" s="15" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -11454,10 +11593,10 @@
         <v>4</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F97" s="15" t="s">
-        <v>357</v>
+        <v>248</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -11468,10 +11607,10 @@
         <v>4</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F98" s="15" t="s">
-        <v>384</v>
+        <v>185</v>
+      </c>
+      <c r="F98" s="31" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -11482,15 +11621,24 @@
         <v>4</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F99" s="15" t="s">
-        <v>358</v>
+        <v>67</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="C100" s="6" t="s">
-        <v>69</v>
+      <c r="A100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -11501,24 +11649,15 @@
         <v>4</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F101" s="15" t="s">
-        <v>359</v>
+        <v>68</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F102" s="15" t="s">
-        <v>385</v>
+      <c r="C102" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -11529,10 +11668,10 @@
         <v>4</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F103" s="15" t="s">
-        <v>386</v>
+        <v>71</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -11543,10 +11682,10 @@
         <v>4</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F104" s="15" t="s">
-        <v>387</v>
+        <v>62</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -11557,10 +11696,10 @@
         <v>4</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="F105" s="15" t="s">
-        <v>388</v>
+        <v>60</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -11571,10 +11710,10 @@
         <v>4</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F106" s="15" t="s">
-        <v>389</v>
+        <v>61</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -11585,10 +11724,10 @@
         <v>4</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F107" s="15" t="s">
-        <v>390</v>
+        <v>468</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -11599,10 +11738,10 @@
         <v>4</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F108" s="15" t="s">
-        <v>391</v>
+        <v>59</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -11613,10 +11752,10 @@
         <v>4</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F109" s="15" t="s">
-        <v>392</v>
+        <v>58</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -11627,10 +11766,10 @@
         <v>4</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F110" s="15" t="s">
-        <v>360</v>
+        <v>57</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -11640,11 +11779,11 @@
       <c r="B111" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F111" s="15" t="s">
-        <v>361</v>
+      <c r="C111" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -11654,58 +11793,58 @@
       <c r="B112" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="F112" s="15" t="s">
-        <v>393</v>
+      <c r="C112" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="C114" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F114" s="23" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="C115" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F115" s="15" t="s">
-        <v>421</v>
+      <c r="A114" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="C116" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F116" s="15" t="s">
-        <v>422</v>
+        <v>1</v>
+      </c>
+      <c r="F116" s="22" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="C117" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>5</v>
@@ -11713,64 +11852,64 @@
       <c r="E117" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F117" s="23" t="s">
-        <v>417</v>
+      <c r="F117" s="14" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="C118" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E118" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="C119" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F119" s="22" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="C120" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F118" s="15" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="C119" s="14" t="s">
+      <c r="F120" s="14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="C121" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="D121" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E119" s="14" t="s">
+      <c r="E121" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F119" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F120" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="F121" s="15" t="s">
-        <v>473</v>
+        <v>420</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -11780,11 +11919,11 @@
       <c r="B122" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F122" s="15" t="s">
-        <v>418</v>
+      <c r="C122" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -11794,11 +11933,11 @@
       <c r="B123" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F123" s="15" t="s">
-        <v>474</v>
+      <c r="C123" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -11809,10 +11948,10 @@
         <v>4</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F124" s="15" t="s">
-        <v>475</v>
+        <v>416</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -11822,11 +11961,11 @@
       <c r="B125" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F125" s="15" t="s">
-        <v>476</v>
+      <c r="C125" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -11837,10 +11976,10 @@
         <v>4</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F126" s="15" t="s">
-        <v>477</v>
+        <v>89</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -11850,11 +11989,11 @@
       <c r="B127" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F127" s="15" t="s">
-        <v>478</v>
+      <c r="C127" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -11865,10 +12004,10 @@
         <v>4</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="F128" s="15" t="s">
-        <v>479</v>
+        <v>90</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -11878,11 +12017,11 @@
       <c r="B129" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F129" s="15" t="s">
-        <v>480</v>
+      <c r="C129" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -11893,10 +12032,10 @@
         <v>4</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F130" s="15" t="s">
         <v>481</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -11907,10 +12046,10 @@
         <v>4</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F131" s="15" t="s">
-        <v>482</v>
+        <v>92</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -11921,10 +12060,10 @@
         <v>4</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F132" s="15" t="s">
-        <v>483</v>
+        <v>93</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -11935,10 +12074,10 @@
         <v>4</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="F133" s="15" t="s">
-        <v>487</v>
+        <v>94</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -11949,10 +12088,10 @@
         <v>4</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="F134" s="15" t="s">
-        <v>488</v>
+        <v>95</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -11962,11 +12101,11 @@
       <c r="B135" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C135" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="F135" s="15" t="s">
-        <v>489</v>
+      <c r="C135" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -11976,11 +12115,11 @@
       <c r="B136" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C136" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F136" s="15" t="s">
-        <v>491</v>
+      <c r="C136" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -11990,109 +12129,109 @@
       <c r="B137" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F137" s="15" t="s">
-        <v>490</v>
+      <c r="C137" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="C139" s="14" t="s">
+      <c r="A139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="C141" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="F141" s="21" t="s">
         <v>426</v>
-      </c>
-      <c r="D139" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E139" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="F139" s="22" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="F140" s="15" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="F141" s="15" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="F142" s="15" t="s">
-        <v>494</v>
+        <v>431</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="F143" s="15" t="s">
-        <v>495</v>
+        <v>432</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="145" spans="1:6">
+      <c r="A145" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C145" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F145" s="23" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="C146" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="D146" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E146" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F146" s="28" t="s">
-        <v>501</v>
+      <c r="F145" s="14" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -12103,38 +12242,38 @@
         <v>5</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F147" s="23" t="s">
-        <v>500</v>
+        <v>314</v>
+      </c>
+      <c r="F147" s="22" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="F148" s="15" t="s">
-        <v>503</v>
+      <c r="C148" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="D148" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E148" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F148" s="27" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="F149" s="15" t="s">
-        <v>504</v>
+      <c r="C149" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F149" s="22" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -12144,11 +12283,11 @@
       <c r="B150" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C150" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="F150" s="15" t="s">
-        <v>505</v>
+      <c r="C150" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="F150" s="14" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -12158,11 +12297,11 @@
       <c r="B151" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C151" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="F151" s="15" t="s">
-        <v>506</v>
+      <c r="C151" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="F151" s="14" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -12173,10 +12312,10 @@
         <v>4</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="F152" s="15" t="s">
-        <v>507</v>
+        <v>308</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -12187,356 +12326,356 @@
         <v>4</v>
       </c>
       <c r="C153" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F153" s="14" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="F155" s="14" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="1:6" ht="27" thickBot="1">
+      <c r="A157" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="B157" s="33"/>
+      <c r="C157" s="33"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="33"/>
+      <c r="F157" s="33"/>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="C158" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F158" s="28" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="F159" s="1"/>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="C160" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D160" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F160" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F161" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="F153" s="15" t="s">
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F162" s="14" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
-      <c r="C154" s="3"/>
-    </row>
-    <row r="155" spans="1:6" ht="27" thickBot="1">
-      <c r="A155" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="B155" s="34"/>
-      <c r="C155" s="34"/>
-      <c r="D155" s="34"/>
-      <c r="E155" s="34"/>
-      <c r="F155" s="34"/>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="C156" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F156" s="29" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="F157" s="1"/>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="C158" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D158" s="14" t="s">
+    <row r="163" spans="1:6">
+      <c r="F163" s="1"/>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="C164" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D164" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E158" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F158" s="22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="F159" s="15" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="F160" s="15" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="F161" s="1"/>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="C162" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="D162" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E162" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="F162" s="22" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="F163" s="15" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C164" s="8" t="s">
+      <c r="E164" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="F164" s="15" t="s">
-        <v>515</v>
+      <c r="F164" s="21" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C165" s="12" t="s">
-        <v>271</v>
+      <c r="C165" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="F165" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
+      </c>
+      <c r="F165" s="14" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C166" s="12" t="s">
-        <v>517</v>
+      <c r="C166" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="F166" s="15" t="s">
-        <v>520</v>
+        <v>513</v>
+      </c>
+      <c r="F166" s="14" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C167" s="11" t="s">
         <v>269</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="F167" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
+      </c>
+      <c r="F167" s="14" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C168" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="D168" s="14" t="s">
+      <c r="C168" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E168" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="F168" s="16" t="s">
-        <v>519</v>
+      <c r="E168" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F168" s="14" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1" t="s">
-        <v>516</v>
+        <v>270</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="F169" s="15" t="s">
-        <v>521</v>
+        <v>267</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F169" s="14" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="D170" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E170" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="F170" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F170" s="15" t="s">
-        <v>522</v>
-      </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="C171" s="8"/>
+      <c r="A171" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="F171" s="14" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="C172" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="D172" s="14" t="s">
+      <c r="A172" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="F172" s="14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="C173" s="8"/>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="C174" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="D174" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E172" s="14" t="s">
+      <c r="E174" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="F174" s="21" t="s">
         <v>427</v>
-      </c>
-      <c r="F172" s="22" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C173" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="F173" s="15" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C174" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="F174" s="15" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C175" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="F175" s="15" t="s">
-        <v>526</v>
+      <c r="C175" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="F175" s="14" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C176" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="F176" s="15" t="s">
-        <v>527</v>
+      <c r="C176" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F177" s="14" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="C178" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="D178" s="14" t="s">
+      <c r="A178" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="F178" s="14" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="C180" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D180" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E178" s="14" t="s">
+      <c r="E180" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F178" s="22" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F179" s="15" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F180" s="15" t="s">
-        <v>394</v>
+      <c r="F180" s="21" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -12547,10 +12686,10 @@
         <v>4</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F181" s="15" t="s">
-        <v>362</v>
+        <v>101</v>
+      </c>
+      <c r="F181" s="14" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -12561,10 +12700,10 @@
         <v>4</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F182" s="15" t="s">
-        <v>363</v>
+        <v>102</v>
+      </c>
+      <c r="F182" s="14" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -12575,10 +12714,10 @@
         <v>4</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F183" s="15" t="s">
-        <v>364</v>
+        <v>103</v>
+      </c>
+      <c r="F183" s="14" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -12589,10 +12728,10 @@
         <v>4</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F184" s="15" t="s">
-        <v>395</v>
+        <v>104</v>
+      </c>
+      <c r="F184" s="14" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -12603,10 +12742,10 @@
         <v>4</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F185" s="15" t="s">
-        <v>396</v>
+        <v>249</v>
+      </c>
+      <c r="F185" s="14" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -12617,10 +12756,10 @@
         <v>4</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F186" s="15" t="s">
-        <v>528</v>
+        <v>105</v>
+      </c>
+      <c r="F186" s="14" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -12631,10 +12770,10 @@
         <v>4</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F187" s="15" t="s">
-        <v>529</v>
+        <v>106</v>
+      </c>
+      <c r="F187" s="14" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -12644,11 +12783,11 @@
       <c r="B188" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C188" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F188" s="15" t="s">
-        <v>365</v>
+      <c r="C188" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F188" s="14" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -12659,276 +12798,270 @@
         <v>4</v>
       </c>
       <c r="C189" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F189" s="14" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F190" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F189" s="15" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="C190" s="8"/>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="C191" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="D191" s="14" t="s">
+      <c r="F191" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="C192" s="8"/>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="C193" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="D193" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E191" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="F191" s="16"/>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C192" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F192" s="15" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F193" s="15" t="s">
-        <v>399</v>
-      </c>
+      <c r="E193" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F193" s="15"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C194" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F194" s="15" t="s">
-        <v>399</v>
+      <c r="C194" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F194" s="14" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F195" s="15" t="s">
-        <v>400</v>
+        <v>203</v>
+      </c>
+      <c r="F195" s="14" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C196" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="D196" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E196" s="14" t="s">
+      <c r="C196" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F196" s="16" t="s">
-        <v>367</v>
+      <c r="F196" s="14" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F197" s="15" t="s">
-        <v>401</v>
+      <c r="C197" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F197" s="14" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C198" s="3" t="s">
-        <v>207</v>
+      <c r="C198" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D198" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198" s="13" t="s">
+        <v>200</v>
       </c>
       <c r="F198" s="15" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C199" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F199" s="15" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="27" thickBot="1">
-      <c r="A201" s="34" t="s">
-        <v>597</v>
-      </c>
-      <c r="B201" s="34"/>
-      <c r="C201" s="34"/>
-      <c r="D201" s="34"/>
-      <c r="E201" s="34"/>
-      <c r="F201" s="35"/>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="C202" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F202" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="G202" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="C203" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F203" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="G203" t="s">
-        <v>559</v>
-      </c>
+      <c r="C199" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F199" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F200" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F201" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="27" thickBot="1">
+      <c r="A203" s="33" t="s">
+        <v>593</v>
+      </c>
+      <c r="B203" s="33"/>
+      <c r="C203" s="33"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="33"/>
+      <c r="F203" s="34"/>
     </row>
     <row r="204" spans="1:7">
       <c r="C204" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F204" s="15" t="s">
-        <v>332</v>
+        <v>42</v>
+      </c>
+      <c r="F204" s="14" t="s">
+        <v>565</v>
       </c>
       <c r="G204" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="C205" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F205" s="15" t="s">
-        <v>333</v>
+        <v>34</v>
+      </c>
+      <c r="F205" s="14" t="s">
+        <v>329</v>
       </c>
       <c r="G205" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="C206" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F206" s="15" t="s">
-        <v>334</v>
+        <v>33</v>
+      </c>
+      <c r="F206" s="14" t="s">
+        <v>330</v>
       </c>
       <c r="G206" t="s">
-        <v>559</v>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="C207" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F207" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="G207" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="C208" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F208" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="G208" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="C210" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F210" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="C211" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E208" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F208" s="15" t="s">
-        <v>585</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="C209" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E209" s="1" t="s">
+      <c r="E211" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F209" s="15" t="s">
-        <v>586</v>
-      </c>
-      <c r="G209" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="F210" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="F211" s="15" t="s">
-        <v>577</v>
+      <c r="F211" s="14" t="s">
+        <v>582</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -12938,118 +13071,118 @@
       <c r="B212" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F212" s="15" t="s">
-        <v>578</v>
+      <c r="C212" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="F212" s="14" t="s">
+        <v>572</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="F213" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="214" spans="1:7">
+      <c r="A214" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C214" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F214" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="C216" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F216" s="22" t="s">
         <v>557</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="G216" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="F217" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F218" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="G219" s="1"/>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="C220" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E214" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="F214" s="23" t="s">
-        <v>561</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7">
-      <c r="A215" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C215" s="31" t="s">
-        <v>560</v>
-      </c>
-      <c r="F215" s="15" t="s">
-        <v>587</v>
-      </c>
-      <c r="G215" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
-      <c r="A216" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="F216" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="G216" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="G217" s="1"/>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="C218" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E218" s="1" t="s">
+      <c r="E220" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F218" s="15" t="s">
-        <v>604</v>
-      </c>
-      <c r="G218" s="1"/>
-    </row>
-    <row r="219" spans="1:7">
-      <c r="A219" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F219" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G219" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
-      <c r="A220" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F220" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G220" s="1" t="s">
-        <v>305</v>
-      </c>
+      <c r="F220" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="G220" s="1"/>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="1" t="s">
@@ -13058,14 +13191,14 @@
       <c r="B221" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C221" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F221" s="15" t="s">
-        <v>142</v>
+      <c r="C221" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F221" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -13076,13 +13209,13 @@
         <v>4</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="F222" s="15" t="s">
-        <v>574</v>
+        <v>177</v>
+      </c>
+      <c r="F222" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>559</v>
+        <v>303</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -13093,13 +13226,13 @@
         <v>4</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F223" s="15" t="s">
-        <v>601</v>
+        <v>178</v>
+      </c>
+      <c r="F223" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>559</v>
+        <v>303</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -13110,13 +13243,13 @@
         <v>4</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F224" s="15" t="s">
-        <v>325</v>
+        <v>563</v>
+      </c>
+      <c r="F224" s="14" t="s">
+        <v>570</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -13127,13 +13260,13 @@
         <v>4</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="F225" s="15" t="s">
-        <v>602</v>
+        <v>564</v>
+      </c>
+      <c r="F225" s="14" t="s">
+        <v>597</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -13144,20 +13277,48 @@
         <v>4</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F226" s="15" t="s">
-        <v>253</v>
+        <v>221</v>
+      </c>
+      <c r="F226" s="14" t="s">
+        <v>323</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="227" spans="1:7">
-      <c r="G227" s="1"/>
+      <c r="A227" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F227" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="228" spans="1:7">
-      <c r="G228" s="1"/>
+      <c r="A228" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F228" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="229" spans="1:7">
       <c r="G229" s="1"/>
@@ -13165,52 +13326,24 @@
     <row r="230" spans="1:7">
       <c r="G230" s="1"/>
     </row>
+    <row r="231" spans="1:7">
+      <c r="G231" s="1"/>
+    </row>
     <row r="232" spans="1:7">
-      <c r="C232" s="1" t="s">
+      <c r="G232" s="1"/>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="C234" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="D234" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E232" s="1" t="s">
+      <c r="E234" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F232" s="15" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="A233" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F233" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G233" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
-      <c r="A234" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F234" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G234" s="1" t="s">
-        <v>305</v>
+      <c r="F234" s="14" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -13220,14 +13353,14 @@
       <c r="B235" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C235" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F235" s="15" t="s">
-        <v>142</v>
+      <c r="C235" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F235" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -13238,13 +13371,13 @@
         <v>4</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="F236" s="15" t="s">
-        <v>574</v>
+        <v>147</v>
+      </c>
+      <c r="F236" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>559</v>
+        <v>303</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -13255,13 +13388,13 @@
         <v>4</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F237" s="15" t="s">
-        <v>601</v>
+        <v>148</v>
+      </c>
+      <c r="F237" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>559</v>
+        <v>303</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -13272,13 +13405,13 @@
         <v>4</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F238" s="15" t="s">
-        <v>325</v>
+        <v>563</v>
+      </c>
+      <c r="F238" s="14" t="s">
+        <v>570</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -13289,13 +13422,13 @@
         <v>4</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="F239" s="15" t="s">
-        <v>602</v>
+        <v>564</v>
+      </c>
+      <c r="F239" s="14" t="s">
+        <v>597</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -13306,69 +13439,75 @@
         <v>4</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F240" s="15" t="s">
-        <v>253</v>
+        <v>222</v>
+      </c>
+      <c r="F240" s="14" t="s">
+        <v>323</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
-      <c r="C243" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F241" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F242" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="C245" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F245" s="14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="C246" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="D246" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E243" s="1" t="s">
+      <c r="E246" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F243" s="15" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
-      <c r="C244" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F244" s="15" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7">
-      <c r="A245" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F245" s="15" t="s">
+      <c r="F246" s="14" t="s">
         <v>579</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7">
-      <c r="A246" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F246" s="15" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -13378,65 +13517,59 @@
       <c r="B247" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C247" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F247" s="15" t="s">
-        <v>581</v>
+      <c r="C247" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F247" s="14" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="248" spans="1:7">
-      <c r="C248" s="3"/>
+      <c r="A248" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F248" s="14" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="249" spans="1:7">
-      <c r="C249" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D249" s="1" t="s">
+      <c r="A249" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F249" s="14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="C251" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E249" s="1" t="s">
+      <c r="E251" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F249" s="23" t="s">
-        <v>543</v>
-      </c>
-      <c r="G249" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7">
-      <c r="A250" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F250" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7">
-      <c r="A251" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F251" s="15" t="s">
-        <v>588</v>
+      <c r="F251" s="22" t="s">
+        <v>539</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -13446,14 +13579,14 @@
       <c r="B252" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C252" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F252" s="15" t="s">
-        <v>589</v>
+      <c r="C252" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F252" s="14" t="s">
+        <v>578</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -13464,13 +13597,13 @@
         <v>4</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F253" s="15" t="s">
-        <v>590</v>
+        <v>82</v>
+      </c>
+      <c r="F253" s="14" t="s">
+        <v>584</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -13481,13 +13614,13 @@
         <v>4</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F254" s="15" t="s">
-        <v>591</v>
+        <v>83</v>
+      </c>
+      <c r="F254" s="14" t="s">
+        <v>585</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -13498,13 +13631,13 @@
         <v>4</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="F255" s="15" t="s">
-        <v>600</v>
+        <v>84</v>
+      </c>
+      <c r="F255" s="14" t="s">
+        <v>586</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -13515,127 +13648,133 @@
         <v>4</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F256" s="15" t="s">
-        <v>592</v>
+        <v>248</v>
+      </c>
+      <c r="F256" s="14" t="s">
+        <v>587</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
-      <c r="C260" s="2"/>
-    </row>
-    <row r="261" spans="1:6">
-      <c r="C261" s="2"/>
-    </row>
-    <row r="263" spans="1:6" ht="27" thickBot="1">
-      <c r="A263" s="34" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F257" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F258" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="C262" s="2"/>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="C263" s="2"/>
+    </row>
+    <row r="265" spans="1:7" ht="27" thickBot="1">
+      <c r="A265" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B263" s="34"/>
-      <c r="C263" s="34"/>
-      <c r="D263" s="34"/>
-      <c r="E263" s="34"/>
-      <c r="F263" s="35"/>
-    </row>
-    <row r="266" spans="1:6">
-      <c r="C266" s="1" t="s">
+      <c r="B265" s="33"/>
+      <c r="C265" s="33"/>
+      <c r="D265" s="33"/>
+      <c r="E265" s="33"/>
+      <c r="F265" s="34"/>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="C268" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F266" s="15" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
-      <c r="C267" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F267" s="15" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6">
-      <c r="C268" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F268" s="15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="F268" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="C269" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E269" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F269" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="C270" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F270" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="C271" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E271" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F269" s="15" t="s">
+      <c r="F271" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
-      <c r="A270" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C270" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F270" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6">
-      <c r="A271" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C271" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F271" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:7">
       <c r="A272" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C272" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F272" s="15" t="s">
-        <v>74</v>
+      <c r="C272" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F272" s="14" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -13645,11 +13784,11 @@
       <c r="B273" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C273" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F273" s="15" t="s">
-        <v>140</v>
+      <c r="C273" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F273" s="14" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -13659,11 +13798,11 @@
       <c r="B274" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C274" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F274" s="15" t="s">
-        <v>324</v>
+      <c r="C274" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F274" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -13673,11 +13812,11 @@
       <c r="B275" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C275" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F275" s="15" t="s">
-        <v>81</v>
+      <c r="C275" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F275" s="14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -13688,10 +13827,10 @@
         <v>4</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F276" s="15" t="s">
-        <v>182</v>
+        <v>119</v>
+      </c>
+      <c r="F276" s="14" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -13702,10 +13841,10 @@
         <v>4</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F277" s="15" t="s">
-        <v>79</v>
+        <v>149</v>
+      </c>
+      <c r="F277" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -13716,10 +13855,10 @@
         <v>4</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F278" s="15" t="s">
-        <v>80</v>
+        <v>179</v>
+      </c>
+      <c r="F278" s="14" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -13730,61 +13869,55 @@
         <v>4</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F279" s="15" t="s">
-        <v>320</v>
+        <v>120</v>
+      </c>
+      <c r="F279" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="280" spans="1:7">
-      <c r="C280" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F280" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G280" s="9" t="s">
-        <v>559</v>
+      <c r="A280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F280" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F281" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="C282" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E282" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B281" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F281" s="15" t="s">
+      <c r="F282" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G281" s="9" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
-      <c r="A282" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F282" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="G282" s="9" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -13794,14 +13927,14 @@
       <c r="B283" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C283" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F283" s="15" t="s">
-        <v>142</v>
+      <c r="C283" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F283" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="G283" s="9" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -13812,13 +13945,13 @@
         <v>4</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="F284" s="15" t="s">
-        <v>575</v>
+        <v>177</v>
+      </c>
+      <c r="F284" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="G284" s="9" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -13829,13 +13962,13 @@
         <v>4</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F285" s="15" t="s">
-        <v>397</v>
+        <v>178</v>
+      </c>
+      <c r="F285" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="G285" s="9" t="s">
-        <v>305</v>
+        <v>555</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -13846,13 +13979,13 @@
         <v>4</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F286" s="15" t="s">
-        <v>325</v>
+        <v>563</v>
+      </c>
+      <c r="F286" s="14" t="s">
+        <v>571</v>
       </c>
       <c r="G286" s="9" t="s">
-        <v>595</v>
+        <v>555</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -13863,13 +13996,13 @@
         <v>4</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F287" s="15" t="s">
-        <v>326</v>
+        <v>564</v>
+      </c>
+      <c r="F287" s="14" t="s">
+        <v>395</v>
       </c>
       <c r="G287" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -13880,64 +14013,64 @@
         <v>4</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F288" s="15" t="s">
-        <v>253</v>
+        <v>221</v>
+      </c>
+      <c r="F288" s="14" t="s">
+        <v>323</v>
       </c>
       <c r="G288" s="9" t="s">
-        <v>305</v>
+        <v>591</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F289" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="G289" s="9" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="290" spans="1:7">
-      <c r="C290" s="1" t="s">
+      <c r="A290" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F290" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G290" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="C292" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D290" s="1" t="s">
+      <c r="D292" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E290" s="1" t="s">
+      <c r="E292" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F290" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="G290" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
-      <c r="A291" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C291" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F291" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G291" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
-      <c r="A292" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F292" s="15" t="s">
-        <v>76</v>
+      <c r="F292" s="14" t="s">
+        <v>589</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -13947,14 +14080,14 @@
       <c r="B293" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C293" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F293" s="15" t="s">
-        <v>142</v>
+      <c r="C293" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F293" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -13965,13 +14098,13 @@
         <v>4</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="F294" s="15" t="s">
-        <v>574</v>
+        <v>147</v>
+      </c>
+      <c r="F294" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -13982,13 +14115,13 @@
         <v>4</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="F295" s="15" t="s">
-        <v>397</v>
+        <v>148</v>
+      </c>
+      <c r="F295" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>305</v>
+        <v>555</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -13999,13 +14132,13 @@
         <v>4</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F296" s="15" t="s">
-        <v>325</v>
+        <v>563</v>
+      </c>
+      <c r="F296" s="14" t="s">
+        <v>570</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>595</v>
+        <v>555</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -14016,13 +14149,13 @@
         <v>4</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F297" s="15" t="s">
-        <v>326</v>
+        <v>594</v>
+      </c>
+      <c r="F297" s="14" t="s">
+        <v>395</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -14033,73 +14166,79 @@
         <v>4</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F298" s="15" t="s">
-        <v>253</v>
+        <v>222</v>
+      </c>
+      <c r="F298" s="14" t="s">
+        <v>323</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>305</v>
+        <v>591</v>
       </c>
     </row>
     <row r="299" spans="1:7">
-      <c r="C299" s="1" t="s">
+      <c r="A299" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F299" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F300" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="C301" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F299" s="15" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7">
-      <c r="C300" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F300" s="15" t="s">
-        <v>566</v>
+      <c r="F301" s="14" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="302" spans="1:7">
       <c r="C302" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F302" s="14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="C304" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F302" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6">
-      <c r="C305" s="1" t="s">
+      <c r="F304" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="C307" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F305" s="15" t="s">
+      <c r="F307" s="14" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
-      <c r="A306" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C306" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F306" s="15" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
-      <c r="A307" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C307" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F307" s="15" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -14109,65 +14248,65 @@
       <c r="B308" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C308" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D308" s="9"/>
-      <c r="E308" s="9"/>
-      <c r="F308" s="17" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" ht="27" thickBot="1">
-      <c r="A310" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="B310" s="34"/>
-      <c r="C310" s="34"/>
-      <c r="D310" s="34"/>
-      <c r="E310" s="34"/>
-      <c r="F310" s="35"/>
-    </row>
-    <row r="311" spans="1:6">
-      <c r="C311" s="1" t="s">
+      <c r="C308" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F308" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F309" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C310" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D310" s="9"/>
+      <c r="E310" s="9"/>
+      <c r="F310" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="27" thickBot="1">
+      <c r="A312" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="B312" s="33"/>
+      <c r="C312" s="33"/>
+      <c r="D312" s="33"/>
+      <c r="E312" s="33"/>
+      <c r="F312" s="34"/>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="C313" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D311" s="1" t="s">
+      <c r="D313" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E311" s="1" t="s">
+      <c r="E313" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F311" s="15" t="s">
+      <c r="F313" s="14" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
-      <c r="A312" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F312" s="15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6">
-      <c r="A313" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F313" s="15" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -14177,11 +14316,11 @@
       <c r="B314" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C314" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F314" s="15" t="s">
-        <v>571</v>
+      <c r="C314" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F314" s="14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -14192,10 +14331,10 @@
         <v>4</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F315" s="15" t="s">
-        <v>570</v>
+        <v>117</v>
+      </c>
+      <c r="F315" s="14" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -14206,10 +14345,10 @@
         <v>4</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F316" s="15" t="s">
-        <v>193</v>
+        <v>184</v>
+      </c>
+      <c r="F316" s="14" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -14220,66 +14359,66 @@
         <v>4</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F317" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F317" s="14" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C318" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="F318" s="14" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="319" spans="1:6">
+      <c r="A319" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C319" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F319" s="15" t="s">
-        <v>135</v>
+        <v>195</v>
+      </c>
+      <c r="F319" s="14" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F320" s="14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="C322" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E322" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B320" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F320" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6">
-      <c r="A321" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F321" s="15" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6">
-      <c r="A322" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F322" s="15" t="s">
-        <v>323</v>
+      <c r="F322" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -14289,11 +14428,11 @@
       <c r="B323" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C323" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F323" s="15" t="s">
-        <v>221</v>
+      <c r="C323" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F323" s="14" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -14303,11 +14442,11 @@
       <c r="B324" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C324" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F324" s="15" t="s">
-        <v>221</v>
+      <c r="C324" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F324" s="14" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -14317,11 +14456,11 @@
       <c r="B325" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C325" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F325" s="15" t="s">
-        <v>128</v>
+      <c r="C325" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F325" s="14" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -14332,10 +14471,10 @@
         <v>4</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F326" s="15" t="s">
-        <v>129</v>
+        <v>217</v>
+      </c>
+      <c r="F326" s="14" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -14346,10 +14485,10 @@
         <v>4</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F327" s="15" t="s">
-        <v>188</v>
+        <v>218</v>
+      </c>
+      <c r="F327" s="14" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -14360,10 +14499,10 @@
         <v>4</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F328" s="15" t="s">
-        <v>191</v>
+        <v>152</v>
+      </c>
+      <c r="F328" s="14" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -14374,10 +14513,10 @@
         <v>4</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F329" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+      <c r="F329" s="14" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -14388,454 +14527,454 @@
         <v>4</v>
       </c>
       <c r="C330" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F330" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F331" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F332" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C333" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F330" s="15" t="s">
+      <c r="F333" s="14" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
-      <c r="C335" s="1" t="s">
+    <row r="338" spans="1:6">
+      <c r="C338" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F335" s="15" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6">
-      <c r="C336" s="8" t="s">
+      <c r="F338" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="C339" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F336" s="15" t="s">
+      <c r="F339" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
-      <c r="C337" s="8" t="s">
+    <row r="340" spans="1:6">
+      <c r="C340" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F337" s="15" t="s">
+      <c r="F340" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
-      <c r="C338" s="3" t="s">
+    <row r="341" spans="1:6">
+      <c r="C341" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F338" s="15" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
-      <c r="C339" s="3"/>
-    </row>
-    <row r="340" spans="1:6">
-      <c r="C340" s="4" t="s">
+      <c r="F341" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="C343" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F340" s="15" t="s">
+      <c r="F343" s="14" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
-      <c r="C341" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F341" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6">
-      <c r="C343" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F343" s="15" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="C344" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F344" s="15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
-      <c r="C345" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F345" s="15" t="s">
-        <v>329</v>
+        <v>141</v>
+      </c>
+      <c r="F344" s="14" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="346" spans="1:6">
       <c r="C346" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F346" s="15" t="s">
-        <v>330</v>
+        <v>136</v>
+      </c>
+      <c r="F346" s="14" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="347" spans="1:6">
       <c r="C347" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F347" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="C348" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F348" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="C349" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F349" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="C350" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D347" s="1" t="s">
+      <c r="D350" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E347" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F347" s="15" t="s">
+      <c r="E350" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F350" s="14" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
-      <c r="A348" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C348" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F348" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
-      <c r="A349" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="F349" s="15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
-      <c r="A350" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="F350" s="15" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="F351" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" ht="27" thickBot="1">
-      <c r="A354" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="B354" s="34"/>
-      <c r="C354" s="34"/>
-      <c r="D354" s="34"/>
-      <c r="E354" s="34"/>
-      <c r="F354" s="35"/>
-    </row>
-    <row r="355" spans="1:6">
-      <c r="C355" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D355" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E355" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F355" s="15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6">
-      <c r="C356" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F356" s="15" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6">
-      <c r="C357" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F357" s="15" t="s">
-        <v>232</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F351" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F352" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F353" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F354" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="27" thickBot="1">
+      <c r="A357" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="B357" s="33"/>
+      <c r="C357" s="33"/>
+      <c r="D357" s="33"/>
+      <c r="E357" s="33"/>
+      <c r="F357" s="34"/>
     </row>
     <row r="358" spans="1:6">
       <c r="C358" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F358" s="15" t="s">
-        <v>231</v>
+        <v>223</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F358" s="14" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="359" spans="1:6">
       <c r="C359" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F359" s="15" t="s">
-        <v>234</v>
+        <v>228</v>
+      </c>
+      <c r="F359" s="14" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="360" spans="1:6">
       <c r="C360" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F360" s="15" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="F360" s="14" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="361" spans="1:6">
       <c r="C361" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F361" s="15" t="s">
-        <v>236</v>
+        <v>238</v>
+      </c>
+      <c r="F361" s="14" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="362" spans="1:6">
       <c r="C362" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F362" s="15" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="F362" s="14" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="363" spans="1:6">
       <c r="C363" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F363" s="15" t="s">
-        <v>238</v>
+        <v>240</v>
+      </c>
+      <c r="F363" s="14" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="364" spans="1:6">
-      <c r="C364" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F364" s="15" t="s">
-        <v>229</v>
+      <c r="C364" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F364" s="14" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="365" spans="1:6">
       <c r="C365" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F365" s="15" t="s">
-        <v>247</v>
+        <v>242</v>
+      </c>
+      <c r="F365" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="C366" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F366" s="14" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="367" spans="1:6">
-      <c r="C367" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F367" s="15" t="s">
-        <v>257</v>
+      <c r="C367" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F367" s="14" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="368" spans="1:6">
       <c r="C368" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F368" s="15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6">
-      <c r="C369" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F369" s="15" t="s">
-        <v>261</v>
+        <v>244</v>
+      </c>
+      <c r="F368" s="14" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="370" spans="1:6">
       <c r="C370" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F370" s="15" t="s">
-        <v>263</v>
+        <v>254</v>
+      </c>
+      <c r="F370" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="C371" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F371" s="14" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="372" spans="1:6">
       <c r="C372" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" ht="27" thickBot="1">
-      <c r="A375" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="B375" s="34"/>
-      <c r="C375" s="34"/>
-      <c r="D375" s="34"/>
-      <c r="E375" s="34"/>
-      <c r="F375" s="35"/>
-    </row>
-    <row r="376" spans="1:6">
-      <c r="C376" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F376" s="15" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6">
-      <c r="C377" s="26"/>
-      <c r="D377" s="26"/>
-      <c r="E377" s="26"/>
-      <c r="F377" s="28"/>
-    </row>
-    <row r="378" spans="1:6">
-      <c r="C378" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="D378" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="F372" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="C373" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F373" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="C375" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="27" thickBot="1">
+      <c r="A378" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="B378" s="33"/>
+      <c r="C378" s="33"/>
+      <c r="D378" s="33"/>
+      <c r="E378" s="33"/>
+      <c r="F378" s="34"/>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="C379" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F379" s="14" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="C380" s="25"/>
+      <c r="D380" s="25"/>
+      <c r="E380" s="25"/>
+      <c r="F380" s="27"/>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="C381" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D381" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E378" s="14" t="s">
+      <c r="E381" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F378" s="22" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6">
-      <c r="A379" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C379" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F379" s="15" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6">
-      <c r="C381" s="14" t="s">
-        <v>542</v>
-      </c>
-      <c r="D381" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E381" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F381" s="16" t="s">
-        <v>543</v>
+      <c r="F381" s="21" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F382" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="C384" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="D384" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E384" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B382" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C382" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="F382" s="15" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6">
-      <c r="C384" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D384" s="1" t="s">
+      <c r="F384" s="15" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F385" s="14" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="C387" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D387" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E384" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F384" s="23" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6">
-      <c r="C385" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="D385" s="14" t="s">
+      <c r="E387" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F387" s="22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="C388" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="D388" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E385" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="F385" s="22" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6">
-      <c r="A386" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C386" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="F386" s="15" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6">
-      <c r="A387" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C387" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F387" s="15" t="s">
+      <c r="E388" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="F388" s="21" t="s">
         <v>531</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6">
-      <c r="A388" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C388" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="F388" s="15" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -14845,11 +14984,11 @@
       <c r="B389" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C389" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="F389" s="15" t="s">
-        <v>540</v>
+      <c r="C389" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F389" s="14" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -14859,11 +14998,11 @@
       <c r="B390" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C390" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="F390" s="15" t="s">
-        <v>544</v>
+      <c r="C390" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F390" s="14" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -14873,11 +15012,11 @@
       <c r="B391" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C391" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="F391" s="15" t="s">
-        <v>546</v>
+      <c r="C391" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="F391" s="14" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -14887,11 +15026,11 @@
       <c r="B392" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C392" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="F392" s="15" t="s">
-        <v>539</v>
+      <c r="C392" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F392" s="14" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -14901,11 +15040,11 @@
       <c r="B393" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C393" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="F393" s="15" t="s">
-        <v>537</v>
+      <c r="C393" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F393" s="14" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -14916,97 +15055,139 @@
         <v>4</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="F394" s="15" t="s">
-        <v>538</v>
+        <v>541</v>
+      </c>
+      <c r="F394" s="14" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="395" spans="1:6">
-      <c r="C395" s="8"/>
+      <c r="A395" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C395" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F395" s="14" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="396" spans="1:6">
-      <c r="C396" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D396" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E396" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="F396" s="22" t="s">
-        <v>551</v>
+      <c r="A396" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C396" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F396" s="14" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="1" t="s">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C397" s="1" t="s">
+      <c r="C397" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F397" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="C398" s="8"/>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="C399" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D399" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E399" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="F399" s="21" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F400" s="14" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
+      <c r="A401" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F401" s="14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
+      <c r="A402" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C402" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F397" s="15" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6">
-      <c r="A398" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F398" s="15" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6">
-      <c r="A399" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C399" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F399" s="15" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="401" spans="7:7">
-      <c r="G401" s="30"/>
-    </row>
-    <row r="402" spans="7:7">
-      <c r="G402" s="30"/>
-    </row>
-    <row r="403" spans="7:7">
-      <c r="G403" s="30"/>
-    </row>
-    <row r="404" spans="7:7">
-      <c r="G404" s="30"/>
+      <c r="F402" s="14" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7">
+      <c r="G404" s="29"/>
+    </row>
+    <row r="405" spans="1:7">
+      <c r="G405" s="29"/>
+    </row>
+    <row r="406" spans="1:7">
+      <c r="G406" s="29"/>
+    </row>
+    <row r="407" spans="1:7">
+      <c r="G407" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A375:F375"/>
-    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A357:F357"/>
+    <mergeCell ref="A312:F312"/>
+    <mergeCell ref="A265:F265"/>
+    <mergeCell ref="A203:F203"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A157:F157"/>
+    <mergeCell ref="A378:F378"/>
+    <mergeCell ref="A59:F59"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A354:F354"/>
-    <mergeCell ref="A310:F310"/>
-    <mergeCell ref="A263:F263"/>
-    <mergeCell ref="A201:F201"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A31:F31"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/git-terminal-keyboard-shortcuts.xlsx
+++ b/git-terminal-keyboard-shortcuts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Goofy/GIT/steves-git-shortcuts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19BEB1E-9F84-9C46-9547-9913D2C1410D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1743FABC-5A43-C548-A358-AD52F4C159CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25400" yWindow="460" windowWidth="25780" windowHeight="28340" xr2:uid="{B9461A18-709B-FF48-BF68-DFA38E1882C7}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$59:$F$354</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$89:$F$384</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="652">
   <si>
     <t>Configuration</t>
   </si>
@@ -9959,13 +9959,308 @@
       </rPr>
       <t>K</t>
     </r>
+  </si>
+  <si>
+    <t>Are you running Zsh or Bash</t>
+  </si>
+  <si>
+    <t>echo $0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">States what </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>shell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is being used</t>
+    </r>
+  </si>
+  <si>
+    <t>Git Auto-Completion for macOS and Linux</t>
+  </si>
+  <si>
+    <t>Auto-completion for Zsh</t>
+  </si>
+  <si>
+    <t>.zshrc</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name of file to be edited </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Bold Italic"/>
+      </rPr>
+      <t>~/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (user directory)</t>
+    </r>
+  </si>
+  <si>
+    <t>autoload -Uz compinit &amp;&amp; compinit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Include the this code in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Bold Italic"/>
+      </rPr>
+      <t>.zshrc</t>
+    </r>
+  </si>
+  <si>
+    <t>Auto-completion for Bash (older macOS</t>
+  </si>
+  <si>
+    <t>github.com/git/git/tree/master/contrib/completion</t>
+  </si>
+  <si>
+    <t>Location of completion repository files</t>
+  </si>
+  <si>
+    <t>.git-completion-bash</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name of file for saving to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Bold Italic"/>
+      </rPr>
+      <t>~/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (user directory)</t>
+    </r>
+  </si>
+  <si>
+    <t>.bash_profile</t>
+  </si>
+  <si>
+    <t>Name of file to be edited ~/ (user directory)</t>
+  </si>
+  <si>
+    <t>if [ -f ~/.git-completion.bash ]; then 
+       	source ~/.git-completion.bash
+fi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Include the following code in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Bold Italic"/>
+      </rPr>
+      <t>.bash_profile</t>
+    </r>
+  </si>
+  <si>
+    <t>Git Branch Indentification for macOS and Linux</t>
+  </si>
+  <si>
+    <t>Adds a reference to a Git branch in the command prompt</t>
+  </si>
+  <si>
+    <t>.git-prompt-sh</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">.bash_profile </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> .bashrc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name of file to be edited (or create) to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Bold Italic"/>
+      </rPr>
+      <t>~/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (user directory)</t>
+    </r>
+  </si>
+  <si>
+    <t>source ~/.git-prompt.sh
+precmd () { __git_ps1 "%n" ":%c$ " "|%s" }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Zsh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> include this code in .bash_profile</t>
+    </r>
+  </si>
+  <si>
+    <t>source ~/.git-prompt.sh
+PROMPT_COMMAND='__git_ps1 "\u@\h:\w" "\\\$ "'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>Bash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> include this code in .bash_profile</t>
+    </r>
+  </si>
+  <si>
+    <t>Repo Connection</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Git Credential Manager </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>(using HomeBrew)</t>
+    </r>
+  </si>
+  <si>
+    <t>docs.github.com/en/get-started/getting-started-with-git/caching-your-github-credentials-in-git</t>
+  </si>
+  <si>
+    <t>Instructions to install Git Credential Manager (GCM) on github.com</t>
+  </si>
+  <si>
+    <t>brew tap microsoft/git</t>
+  </si>
+  <si>
+    <t>Pulls down the GCM files</t>
+  </si>
+  <si>
+    <t>brew install --cask git-credential-manager-core</t>
+  </si>
+  <si>
+    <t>Installs the GCM (an administrator's password is required)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git clone </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>remote_url</t>
+    </r>
+  </si>
+  <si>
+    <t>The next time you interact with a repo a PAC will be required</t>
+  </si>
+  <si>
+    <t>docs.github.com/en/authentication/keeping-your-account-and-data-secure/creating-a-personal-access-token</t>
+  </si>
+  <si>
+    <t>Instructions to create a Personal Access Token (PAC) on github.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="50">
+  <fonts count="53">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10257,6 +10552,23 @@
       <color rgb="FF000000"/>
       <name val="Menlo Regular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -10266,7 +10578,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -10301,12 +10613,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10340,11 +10663,35 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" xr:uid="{ACEF5201-9FF9-AD44-AA4C-60ABCDBD9D8F}"/>
@@ -10663,10 +11010,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G407"/>
+  <dimension ref="A1:G437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="33" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="33" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10743,14 +11090,14 @@
       <c r="A8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="27" thickBot="1">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="1" t="s">
@@ -10772,14 +11119,14 @@
       <c r="A12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="27" thickBot="1">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="1" t="s">
@@ -10988,7 +11335,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="17">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="33" t="s">
         <v>611</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -11001,1307 +11348,1165 @@
         <v>610</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="27" thickBot="1">
-      <c r="A31" s="33" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="33"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="33"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="21" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="33"/>
+      <c r="C32" s="39" t="s">
+        <v>614</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="33"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" ht="20" thickBot="1">
+      <c r="A34" s="33"/>
+      <c r="C34" s="40" t="s">
+        <v>616</v>
+      </c>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="42"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="33"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="21" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="33"/>
+      <c r="C36" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="33"/>
+      <c r="C37" s="43" t="s">
+        <v>620</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="33"/>
+      <c r="C38" s="44"/>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="33"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="21" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="33"/>
+      <c r="C40" s="45" t="s">
+        <v>623</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="33"/>
+      <c r="C41" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="33"/>
+      <c r="C42" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="40">
+      <c r="A43" s="33"/>
+      <c r="C43" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="F43" s="46" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="33"/>
+      <c r="C44" s="43"/>
+      <c r="F44" s="46"/>
+    </row>
+    <row r="45" spans="1:6" ht="20" thickBot="1">
+      <c r="A45" s="33"/>
+      <c r="C45" s="47" t="s">
+        <v>631</v>
+      </c>
+      <c r="D45" s="48"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="49"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="33"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="52" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="33"/>
+      <c r="C47" s="45" t="s">
+        <v>623</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="33"/>
+      <c r="C48" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="33"/>
+      <c r="C49" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="40">
+      <c r="A50" s="33"/>
+      <c r="C50" s="43" t="s">
+        <v>636</v>
+      </c>
+      <c r="F50" s="46" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="40">
+      <c r="A51" s="33"/>
+      <c r="C51" s="43" t="s">
+        <v>638</v>
+      </c>
+      <c r="F51" s="46" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="33"/>
+      <c r="C52" s="43"/>
+      <c r="F52" s="46"/>
+    </row>
+    <row r="53" spans="1:6" ht="20" thickBot="1">
+      <c r="A53" s="33"/>
+      <c r="C53" s="40" t="s">
+        <v>640</v>
+      </c>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="49"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="33"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="21" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="27">
+      <c r="A55" s="33"/>
+      <c r="C55" s="45" t="s">
+        <v>642</v>
+      </c>
+      <c r="F55" s="53" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="33"/>
+      <c r="C56" s="43" t="s">
+        <v>644</v>
+      </c>
+      <c r="F56" s="46" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="33"/>
+      <c r="C57" s="43" t="s">
+        <v>646</v>
+      </c>
+      <c r="F57" s="46" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="33"/>
+      <c r="C58" s="43" t="s">
+        <v>648</v>
+      </c>
+      <c r="F58" s="46" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="40">
+      <c r="A59" s="33"/>
+      <c r="C59" s="45" t="s">
+        <v>650</v>
+      </c>
+      <c r="F59" s="53" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="33"/>
+    </row>
+    <row r="61" spans="1:6" ht="27" thickBot="1">
+      <c r="A61" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="C32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="C33" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="C34" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="C35" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="C36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="C37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="C38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="C39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="C40" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17">
-      <c r="C41" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="C42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="C43" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="C44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="C45" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="C46" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="20"/>
-    </row>
-    <row r="48" spans="1:6" ht="27" thickBot="1">
-      <c r="A48" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="34"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="C49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="C50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="C51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="C52" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="C53" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="C54" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="C55" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="C56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="C57" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="27" thickBot="1">
-      <c r="A59" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="C60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="C61" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>330</v>
-      </c>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="37"/>
     </row>
     <row r="62" spans="1:6">
       <c r="C62" s="1" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>331</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="C63" s="1" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>332</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="C64" s="1" t="s">
-        <v>22</v>
+        <v>552</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>333</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="C65" s="1" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>335</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="C66" s="1" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>336</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="C67" s="1" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>334</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="C68" s="1" t="s">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>337</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="C69" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>338</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="C70" s="11" t="s">
-        <v>213</v>
+      <c r="C70" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="C71" s="11" t="s">
-        <v>214</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17">
+      <c r="C71" s="9" t="s">
+        <v>612</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>339</v>
+        <v>450</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="C72" s="1" t="s">
-        <v>215</v>
+        <v>51</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>340</v>
+        <v>451</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="C73" s="1" t="s">
-        <v>65</v>
+        <v>456</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>341</v>
+        <v>452</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="C74" s="1" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>342</v>
+        <v>453</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="C75" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="C76" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="14" t="s">
-        <v>343</v>
+      <c r="F76" s="14" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="C77" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="F77" s="21" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>346</v>
-      </c>
+      <c r="A77" s="20"/>
+    </row>
+    <row r="78" spans="1:6" ht="27" thickBot="1">
+      <c r="A78" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="37"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>346</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C80" s="1" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>346</v>
+        <v>458</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C81" s="1" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>375</v>
+        <v>459</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C82" s="1" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>344</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C83" s="1" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>345</v>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="C84" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="C85" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F85" s="21" t="s">
-        <v>378</v>
+      <c r="C85" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>64</v>
+      <c r="C86" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>347</v>
+        <v>464</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C87" s="3" t="s">
-        <v>292</v>
+        <v>25</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F89" s="14" t="s">
-        <v>350</v>
-      </c>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="27" thickBot="1">
+      <c r="A89" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>159</v>
+      <c r="C90" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>248</v>
+      <c r="C91" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="C92" s="3"/>
-    </row>
-    <row r="93" spans="1:6" ht="27" thickBot="1">
-      <c r="A93" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="34"/>
+      <c r="C92" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="C93" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="94" spans="1:6">
       <c r="C94" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>413</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="C95" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="C96" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="D96" s="13" t="s">
+      <c r="C96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="C97" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="C98" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="C99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="C100" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="C101" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="C102" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="C103" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="C104" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="C105" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="C107" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D107" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E96" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F96" s="15" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F97" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F98" s="31" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F99" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F100" s="14" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F101" s="14" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="C102" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F103" s="14" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F104" s="14" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F105" s="14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F106" s="14" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="F107" s="14" t="s">
-        <v>386</v>
+      <c r="E107" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="F107" s="21" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>59</v>
+      <c r="C108" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>58</v>
+      <c r="C109" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>388</v>
+        <v>346</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>57</v>
+      <c r="C110" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>389</v>
+        <v>346</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>56</v>
+      <c r="C111" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>27</v>
+      <c r="C112" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="C115" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" s="21" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="1:6" ht="27" thickBot="1">
+      <c r="A123" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B123" s="36"/>
+      <c r="C123" s="36"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="37"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="C124" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="C126" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E126" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F113" s="14" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="F114" s="14" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="C116" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F116" s="22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="C117" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F117" s="14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="C118" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="C119" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F119" s="22" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="C120" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F120" s="14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="C121" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E121" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F121" s="15" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F122" s="14" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F123" s="14" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F124" s="14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F125" s="14" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F126" s="14" t="s">
-        <v>472</v>
+      <c r="F126" s="15" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>417</v>
+      <c r="C127" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>473</v>
+        <v>354</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F128" s="14" t="s">
-        <v>474</v>
+      <c r="C128" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F128" s="31" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>91</v>
+      <c r="C129" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>475</v>
+        <v>355</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>481</v>
+      <c r="C130" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>476</v>
+        <v>382</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>92</v>
+      <c r="C131" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>477</v>
+        <v>356</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F132" s="14" t="s">
-        <v>478</v>
+      <c r="C132" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>94</v>
+      <c r="C133" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>479</v>
+        <v>357</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>95</v>
+      <c r="C134" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>480</v>
+        <v>383</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>482</v>
+      <c r="C135" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>484</v>
+        <v>384</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>483</v>
+      <c r="C136" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>485</v>
+        <v>385</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C137" s="4" t="s">
-        <v>207</v>
+      <c r="C137" s="3" t="s">
+        <v>468</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>486</v>
+        <v>386</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>208</v>
+      <c r="C138" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>488</v>
+        <v>387</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>209</v>
+      <c r="C139" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>487</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="C141" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="D141" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E141" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="F141" s="21" t="s">
-        <v>426</v>
+      <c r="A141" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1" t="s">
-        <v>425</v>
+        <v>23</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C142" s="8" t="s">
-        <v>431</v>
+      <c r="C142" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>489</v>
+        <v>358</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1" t="s">
-        <v>425</v>
+        <v>23</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C143" s="8" t="s">
-        <v>432</v>
+      <c r="C143" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>490</v>
+        <v>359</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1" t="s">
-        <v>425</v>
+        <v>23</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C144" s="8" t="s">
-        <v>316</v>
+      <c r="C144" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="F145" s="14" t="s">
-        <v>492</v>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="C146" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F146" s="22" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="C147" s="8" t="s">
-        <v>313</v>
+      <c r="C147" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F147" s="22" t="s">
-        <v>499</v>
+        <v>1</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="C148" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="D148" s="25" t="s">
+      <c r="C148" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E148" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F148" s="27" t="s">
-        <v>498</v>
+      <c r="E148" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="C149" s="8" t="s">
-        <v>311</v>
+      <c r="C149" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>310</v>
+        <v>1</v>
       </c>
       <c r="F149" s="22" t="s">
-        <v>497</v>
+        <v>414</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C150" s="12" t="s">
-        <v>306</v>
+      <c r="C150" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>500</v>
+        <v>418</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="F151" s="14" t="s">
-        <v>501</v>
+      <c r="C151" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F151" s="15" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -12311,11 +12516,11 @@
       <c r="B152" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C152" s="5" t="s">
-        <v>308</v>
+      <c r="C152" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -12325,11 +12530,11 @@
       <c r="B153" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C153" s="5" t="s">
-        <v>309</v>
+      <c r="C153" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -12339,11 +12544,11 @@
       <c r="B154" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C154" s="5" t="s">
-        <v>312</v>
+      <c r="C154" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>504</v>
+        <v>415</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -12353,1113 +12558,1104 @@
       <c r="B155" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>505</v>
+      <c r="C155" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="C156" s="3"/>
-    </row>
-    <row r="157" spans="1:6" ht="27" thickBot="1">
-      <c r="A157" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="B157" s="33"/>
-      <c r="C157" s="33"/>
-      <c r="D157" s="33"/>
-      <c r="E157" s="33"/>
-      <c r="F157" s="33"/>
+      <c r="A156" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="C158" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F158" s="28" t="s">
-        <v>507</v>
+      <c r="A158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="F159" s="1"/>
+      <c r="A159" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="C160" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D160" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E160" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F160" s="21" t="s">
-        <v>234</v>
+      <c r="A160" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C161" s="8" t="s">
-        <v>247</v>
+      <c r="C161" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>508</v>
+        <v>477</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C162" s="8" t="s">
-        <v>265</v>
+      <c r="C162" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>509</v>
+        <v>478</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="F163" s="1"/>
+      <c r="A163" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="C164" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="D164" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E164" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="F164" s="21" t="s">
-        <v>521</v>
+      <c r="A164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F164" s="14" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1" t="s">
-        <v>270</v>
+        <v>6</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C165" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>513</v>
+      <c r="C165" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1" t="s">
-        <v>270</v>
+        <v>6</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C166" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>513</v>
+      <c r="C166" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>512</v>
+        <v>485</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1" t="s">
-        <v>270</v>
+        <v>6</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C167" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>513</v>
+      <c r="C167" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1" t="s">
-        <v>270</v>
+        <v>6</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C168" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>513</v>
+      <c r="C168" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1" t="s">
-        <v>270</v>
+        <v>6</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C169" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D169" s="1" t="s">
+      <c r="C169" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F169" s="14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="C171" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="D171" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="F169" s="14" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C170" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="D170" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E170" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="F170" s="15" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="F171" s="14" t="s">
-        <v>518</v>
+      <c r="E171" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="F171" s="21" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1" t="s">
-        <v>513</v>
+        <v>425</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>559</v>
+        <v>431</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="C173" s="8"/>
+      <c r="A173" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="C174" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="D174" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E174" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="F174" s="21" t="s">
-        <v>427</v>
+      <c r="A174" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C175" s="11" t="s">
-        <v>428</v>
+      <c r="C175" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C176" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="F176" s="14" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C177" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F177" s="14" t="s">
-        <v>523</v>
+        <v>313</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F177" s="22" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C178" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="F178" s="14" t="s">
-        <v>524</v>
+      <c r="C178" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="D178" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E178" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F178" s="27" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="C179" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F179" s="22" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="C180" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="D180" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E180" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F180" s="21" t="s">
-        <v>380</v>
+      <c r="A180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="F180" s="14" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>101</v>
+      <c r="C181" s="12" t="s">
+        <v>307</v>
       </c>
       <c r="F181" s="14" t="s">
-        <v>381</v>
+        <v>501</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>102</v>
+      <c r="C182" s="5" t="s">
+        <v>308</v>
       </c>
       <c r="F182" s="14" t="s">
-        <v>392</v>
+        <v>502</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C183" s="1" t="s">
-        <v>103</v>
+      <c r="C183" s="5" t="s">
+        <v>309</v>
       </c>
       <c r="F183" s="14" t="s">
-        <v>360</v>
+        <v>503</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>104</v>
+      <c r="C184" s="5" t="s">
+        <v>312</v>
       </c>
       <c r="F184" s="14" t="s">
-        <v>361</v>
+        <v>504</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>249</v>
+      <c r="C185" s="5" t="s">
+        <v>505</v>
       </c>
       <c r="F185" s="14" t="s">
-        <v>362</v>
+        <v>506</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F186" s="14" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F187" s="14" t="s">
-        <v>394</v>
-      </c>
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="1:6" ht="27" thickBot="1">
+      <c r="A187" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="B187" s="36"/>
+      <c r="C187" s="36"/>
+      <c r="D187" s="36"/>
+      <c r="E187" s="36"/>
+      <c r="F187" s="36"/>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F188" s="14" t="s">
-        <v>525</v>
+      <c r="C188" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F188" s="28" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F189" s="14" t="s">
-        <v>526</v>
-      </c>
+      <c r="F189" s="1"/>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F190" s="14" t="s">
-        <v>363</v>
+      <c r="C190" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D190" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E190" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F190" s="21" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F191" s="14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F192" s="14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="F193" s="1"/>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="C194" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D194" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E194" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F194" s="21" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F195" s="14" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F196" s="14" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F197" s="14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F198" s="14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F199" s="14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="D200" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E200" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="F200" s="15" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="F201" s="14" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="F202" s="14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="C203" s="8"/>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="C204" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="D204" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E204" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="F204" s="21" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="F205" s="14" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="F206" s="14" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F207" s="14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="F208" s="14" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="C210" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D210" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E210" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C191" s="1" t="s">
+      <c r="F210" s="21" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F211" s="14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F212" s="14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F213" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F214" s="14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F215" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F216" s="14" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F217" s="14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F218" s="14" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F219" s="14" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F220" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F191" s="14" t="s">
+      <c r="F221" s="14" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
-      <c r="C192" s="8"/>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="C193" s="24" t="s">
+    <row r="222" spans="1:6">
+      <c r="C222" s="8"/>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="C223" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="D193" s="13" t="s">
+      <c r="D223" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E193" s="13" t="s">
+      <c r="E223" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F193" s="15"/>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="1" t="s">
+      <c r="F223" s="15"/>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C194" s="10" t="s">
+      <c r="B224" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F194" s="14" t="s">
+      <c r="F224" s="14" t="s">
         <v>396</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F195" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F196" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F197" s="14" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C198" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="D198" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E198" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="F198" s="15" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F199" s="14" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F200" s="14" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F201" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="27" thickBot="1">
-      <c r="A203" s="33" t="s">
-        <v>593</v>
-      </c>
-      <c r="B203" s="33"/>
-      <c r="C203" s="33"/>
-      <c r="D203" s="33"/>
-      <c r="E203" s="33"/>
-      <c r="F203" s="34"/>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="C204" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F204" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="G204" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="C205" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F205" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="G205" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="C206" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F206" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="G206" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="C207" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F207" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="G207" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="C208" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F208" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="G208" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="C210" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F210" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="C211" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F211" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
-      <c r="A212" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="F212" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
-      <c r="A213" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="F213" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
-      <c r="A214" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F214" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
-      <c r="C216" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="F216" s="22" t="s">
-        <v>557</v>
-      </c>
-      <c r="G216" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="A217" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C217" s="30" t="s">
-        <v>556</v>
-      </c>
-      <c r="F217" s="14" t="s">
-        <v>583</v>
-      </c>
-      <c r="G217" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="A218" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="F218" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
-      <c r="G219" s="1"/>
-    </row>
-    <row r="220" spans="1:7">
-      <c r="C220" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F220" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="G220" s="1"/>
-    </row>
-    <row r="221" spans="1:7">
-      <c r="A221" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F221" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
-      <c r="A222" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F222" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G222" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
-      <c r="A223" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F223" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G223" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
-      <c r="A224" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="F224" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>564</v>
+        <v>203</v>
       </c>
       <c r="F225" s="14" t="s">
-        <v>597</v>
-      </c>
-      <c r="G225" s="1" t="s">
-        <v>555</v>
+        <v>397</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="F226" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="G226" s="1" t="s">
-        <v>555</v>
+        <v>397</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>599</v>
+        <v>210</v>
       </c>
       <c r="F227" s="14" t="s">
-        <v>598</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>555</v>
+        <v>398</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C228" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F228" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>555</v>
+      <c r="C228" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D228" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E228" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F228" s="15" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="229" spans="1:7">
-      <c r="G229" s="1"/>
+      <c r="A229" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F229" s="14" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="230" spans="1:7">
-      <c r="G230" s="1"/>
+      <c r="A230" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F230" s="14" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="231" spans="1:7">
-      <c r="G231" s="1"/>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="G232" s="1"/>
+      <c r="A231" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F231" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="27" thickBot="1">
+      <c r="A233" s="36" t="s">
+        <v>593</v>
+      </c>
+      <c r="B233" s="36"/>
+      <c r="C233" s="36"/>
+      <c r="D233" s="36"/>
+      <c r="E233" s="36"/>
+      <c r="F233" s="37"/>
     </row>
     <row r="234" spans="1:7">
       <c r="C234" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D234" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F234" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="G234" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="C235" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F235" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="G235" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="C236" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F236" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="G236" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="C237" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F237" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="G237" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="C238" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F238" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="G238" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="C240" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D240" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E234" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F234" s="14" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
-      <c r="A235" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F235" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
-      <c r="A236" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F236" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
-      <c r="A237" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F237" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
-      <c r="A238" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="F238" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="G238" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
-      <c r="A239" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="F239" s="14" t="s">
-        <v>597</v>
-      </c>
-      <c r="G239" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
-      <c r="A240" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>222</v>
+      <c r="E240" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F240" s="14" t="s">
-        <v>323</v>
+        <v>581</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="241" spans="1:7">
-      <c r="A241" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>599</v>
+      <c r="C241" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F241" s="14" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>555</v>
@@ -13467,157 +13663,187 @@
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="1" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C242" s="3" t="s">
-        <v>250</v>
+      <c r="C242" s="4" t="s">
+        <v>568</v>
       </c>
       <c r="F242" s="14" t="s">
-        <v>251</v>
+        <v>572</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
-      <c r="C245" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F245" s="14" t="s">
-        <v>580</v>
+    <row r="243" spans="1:7">
+      <c r="A243" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="F243" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F244" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="C246" s="1" t="s">
-        <v>164</v>
+        <v>553</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F246" s="14" t="s">
-        <v>579</v>
+        <v>554</v>
+      </c>
+      <c r="F246" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="1" t="s">
-        <v>145</v>
+        <v>554</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C247" s="1" t="s">
-        <v>173</v>
+      <c r="C247" s="30" t="s">
+        <v>556</v>
       </c>
       <c r="F247" s="14" t="s">
-        <v>575</v>
+        <v>583</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="1" t="s">
-        <v>145</v>
+        <v>554</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>174</v>
+        <v>560</v>
       </c>
       <c r="F248" s="14" t="s">
-        <v>576</v>
+        <v>592</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="249" spans="1:7">
-      <c r="A249" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F249" s="14" t="s">
-        <v>577</v>
-      </c>
+      <c r="G249" s="1"/>
     </row>
     <row r="250" spans="1:7">
-      <c r="C250" s="3"/>
+      <c r="C250" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F250" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="G250" s="1"/>
     </row>
     <row r="251" spans="1:7">
-      <c r="C251" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F251" s="22" t="s">
-        <v>539</v>
+      <c r="A251" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F251" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C252" s="1" t="s">
-        <v>87</v>
+      <c r="C252" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="F252" s="14" t="s">
-        <v>578</v>
+        <v>76</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="F253" s="14" t="s">
-        <v>584</v>
+        <v>142</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>83</v>
+        <v>563</v>
       </c>
       <c r="F254" s="14" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>555</v>
@@ -13625,16 +13851,16 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>84</v>
+        <v>564</v>
       </c>
       <c r="F255" s="14" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>555</v>
@@ -13642,16 +13868,16 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="F256" s="14" t="s">
-        <v>587</v>
+        <v>323</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>555</v>
@@ -13659,16 +13885,16 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="F257" s="14" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G257" s="1" t="s">
         <v>555</v>
@@ -13676,1520 +13902,1898 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="F258" s="14" t="s">
-        <v>588</v>
+        <v>251</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>555</v>
       </c>
     </row>
+    <row r="259" spans="1:7">
+      <c r="G259" s="1"/>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="G260" s="1"/>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="G261" s="1"/>
+    </row>
     <row r="262" spans="1:7">
-      <c r="C262" s="2"/>
-    </row>
-    <row r="263" spans="1:7">
-      <c r="C263" s="2"/>
-    </row>
-    <row r="265" spans="1:7" ht="27" thickBot="1">
-      <c r="A265" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B265" s="33"/>
-      <c r="C265" s="33"/>
-      <c r="D265" s="33"/>
-      <c r="E265" s="33"/>
-      <c r="F265" s="34"/>
+      <c r="G262" s="1"/>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="C264" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F264" s="14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F265" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F266" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F267" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="268" spans="1:7">
-      <c r="C268" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>28</v>
+      <c r="A268" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>563</v>
       </c>
       <c r="F268" s="14" t="s">
-        <v>294</v>
+        <v>570</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="269" spans="1:7">
-      <c r="C269" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>29</v>
+      <c r="A269" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="F269" s="14" t="s">
-        <v>296</v>
+        <v>597</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="270" spans="1:7">
-      <c r="C270" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>32</v>
+      <c r="A270" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="F270" s="14" t="s">
-        <v>295</v>
+        <v>323</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="271" spans="1:7">
-      <c r="C271" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>73</v>
+      <c r="A271" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>599</v>
       </c>
       <c r="F271" s="14" t="s">
-        <v>160</v>
+        <v>598</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="1" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C272" s="8" t="s">
-        <v>122</v>
+      <c r="C272" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="F272" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7">
-      <c r="A273" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C273" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F273" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7">
-      <c r="A274" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F274" s="14" t="s">
-        <v>74</v>
+        <v>251</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>139</v>
+      <c r="C275" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="F275" s="14" t="s">
-        <v>140</v>
+        <v>580</v>
       </c>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>119</v>
+      <c r="C276" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="F276" s="14" t="s">
-        <v>322</v>
+        <v>579</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="1" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C277" s="3" t="s">
-        <v>149</v>
+      <c r="C277" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>81</v>
+        <v>575</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="1" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C278" s="3" t="s">
-        <v>179</v>
+      <c r="C278" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="F278" s="14" t="s">
-        <v>180</v>
+        <v>576</v>
       </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="1" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="F279" s="14" t="s">
-        <v>79</v>
+        <v>577</v>
       </c>
     </row>
     <row r="280" spans="1:7">
-      <c r="A280" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F280" s="14" t="s">
-        <v>80</v>
-      </c>
+      <c r="C280" s="3"/>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F281" s="14" t="s">
-        <v>318</v>
+      <c r="C281" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F281" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="282" spans="1:7">
+      <c r="A282" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C282" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="F282" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G282" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="G282" s="1" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C283" s="4" t="s">
-        <v>146</v>
+      <c r="C283" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="F283" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G283" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="G283" s="1" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="F284" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G284" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="G284" s="1" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="F285" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G285" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="G285" s="1" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>563</v>
+        <v>248</v>
       </c>
       <c r="F286" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="G286" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="G286" s="1" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>564</v>
+        <v>595</v>
       </c>
       <c r="F287" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="G287" s="9" t="s">
-        <v>303</v>
+        <v>596</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F288" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="C292" s="2"/>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="C293" s="2"/>
+    </row>
+    <row r="295" spans="1:6" ht="27" thickBot="1">
+      <c r="A295" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B295" s="36"/>
+      <c r="C295" s="36"/>
+      <c r="D295" s="36"/>
+      <c r="E295" s="36"/>
+      <c r="F295" s="37"/>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="C298" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F298" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="C299" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F299" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="C300" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F300" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="C301" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F301" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C302" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F302" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F303" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F304" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F305" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F306" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F307" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F308" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F309" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F310" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F311" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="C312" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E312" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B288" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C288" s="3" t="s">
+      <c r="F312" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G312" s="9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F313" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G313" s="9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F314" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G314" s="9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F315" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G315" s="9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="F316" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="G316" s="9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F317" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="G317" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C318" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F288" s="14" t="s">
+      <c r="F318" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="G288" s="9" t="s">
+      <c r="G318" s="9" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
-      <c r="A289" s="1" t="s">
+    <row r="319" spans="1:7">
+      <c r="A319" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B289" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C289" s="3" t="s">
+      <c r="B319" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C319" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F289" s="14" t="s">
+      <c r="F319" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="G289" s="9" t="s">
+      <c r="G319" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
-      <c r="A290" s="1" t="s">
+    <row r="320" spans="1:7">
+      <c r="A320" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B290" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C290" s="3" t="s">
+      <c r="B320" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C320" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F290" s="14" t="s">
+      <c r="F320" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="G290" s="9" t="s">
+      <c r="G320" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
-      <c r="C292" s="1" t="s">
+    <row r="322" spans="1:7">
+      <c r="C322" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F292" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="G292" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
-      <c r="A293" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F293" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G293" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
-      <c r="A294" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F294" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G294" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
-      <c r="A295" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F295" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G295" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
-      <c r="A296" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="F296" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="G296" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
-      <c r="A297" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="F297" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="G297" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
-      <c r="A298" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F298" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="G298" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7">
-      <c r="A299" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F299" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="G299" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7">
-      <c r="A300" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F300" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="G300" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7">
-      <c r="C301" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F301" s="14" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7">
-      <c r="C302" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F302" s="14" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
-      <c r="C304" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F304" s="14" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
-      <c r="C307" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F307" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6">
-      <c r="A308" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C308" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F308" s="14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6">
-      <c r="A309" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C309" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F309" s="14" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6">
-      <c r="A310" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C310" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D310" s="9"/>
-      <c r="E310" s="9"/>
-      <c r="F310" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" ht="27" thickBot="1">
-      <c r="A312" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="B312" s="33"/>
-      <c r="C312" s="33"/>
-      <c r="D312" s="33"/>
-      <c r="E312" s="33"/>
-      <c r="F312" s="34"/>
-    </row>
-    <row r="313" spans="1:6">
-      <c r="C313" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F313" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6">
-      <c r="A314" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F314" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6">
-      <c r="A315" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F315" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6">
-      <c r="A316" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F316" s="14" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6">
-      <c r="A317" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F317" s="14" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6">
-      <c r="A318" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F318" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6">
-      <c r="A319" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F319" s="14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6">
-      <c r="A320" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="F320" s="14" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6">
-      <c r="C322" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E322" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F322" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F323" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F324" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F325" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="F326" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F327" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F328" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F329" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F330" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="C331" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F331" s="14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="C332" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F332" s="14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="C334" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F334" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="C337" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F337" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F338" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F339" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C340" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D340" s="9"/>
+      <c r="E340" s="9"/>
+      <c r="F340" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="27" thickBot="1">
+      <c r="A342" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="B342" s="36"/>
+      <c r="C342" s="36"/>
+      <c r="D342" s="36"/>
+      <c r="E342" s="36"/>
+      <c r="F342" s="37"/>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="C343" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F343" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F344" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F345" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F346" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F347" s="14" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F348" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F349" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F350" s="14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="C352" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E352" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F322" s="14" t="s">
+      <c r="F352" s="14" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6">
-      <c r="A323" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F323" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6">
-      <c r="A324" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F324" s="14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6">
-      <c r="A325" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F325" s="14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6">
-      <c r="A326" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F326" s="14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6">
-      <c r="A327" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C327" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F327" s="14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6">
-      <c r="A328" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C328" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F328" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6">
-      <c r="A329" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F329" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6">
-      <c r="A330" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F330" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6">
-      <c r="A331" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C331" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F331" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6">
-      <c r="A332" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C332" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F332" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6">
-      <c r="A333" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C333" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F333" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6">
-      <c r="C338" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F338" s="14" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
-      <c r="C339" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F339" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
-      <c r="C340" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F340" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
-      <c r="C341" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F341" s="14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
-      <c r="C342" s="3"/>
-    </row>
-    <row r="343" spans="1:6">
-      <c r="C343" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F343" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
-      <c r="C344" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F344" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
-      <c r="C346" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F346" s="14" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
-      <c r="C347" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F347" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
-      <c r="C348" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F348" s="14" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
-      <c r="C349" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F349" s="14" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
-      <c r="C350" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E350" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F350" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
-      <c r="A351" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C351" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F351" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6">
-      <c r="A352" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="F352" s="14" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="1" t="s">
-        <v>290</v>
+        <v>3</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C353" s="3" t="s">
-        <v>545</v>
+      <c r="C353" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="F353" s="14" t="s">
-        <v>285</v>
+        <v>127</v>
       </c>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="1" t="s">
-        <v>290</v>
+        <v>3</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C354" s="3" t="s">
-        <v>546</v>
+      <c r="C354" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="F354" s="14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" ht="27" thickBot="1">
-      <c r="A357" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="B357" s="33"/>
-      <c r="C357" s="33"/>
-      <c r="D357" s="33"/>
-      <c r="E357" s="33"/>
-      <c r="F357" s="34"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F355" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F356" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F357" s="14" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="358" spans="1:6">
-      <c r="C358" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D358" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E358" s="1" t="s">
-        <v>224</v>
+      <c r="A358" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="F358" s="14" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
     </row>
     <row r="359" spans="1:6">
-      <c r="C359" s="1" t="s">
-        <v>228</v>
+      <c r="A359" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="F359" s="14" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
     </row>
     <row r="360" spans="1:6">
-      <c r="C360" s="1" t="s">
-        <v>237</v>
+      <c r="A360" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="F360" s="14" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
     </row>
     <row r="361" spans="1:6">
-      <c r="C361" s="1" t="s">
-        <v>238</v>
+      <c r="A361" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="F361" s="14" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
     </row>
     <row r="362" spans="1:6">
-      <c r="C362" s="1" t="s">
-        <v>239</v>
+      <c r="A362" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="F362" s="14" t="s">
-        <v>232</v>
+        <v>154</v>
       </c>
     </row>
     <row r="363" spans="1:6">
-      <c r="C363" s="1" t="s">
-        <v>240</v>
+      <c r="A363" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="F363" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6">
-      <c r="C364" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F364" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6">
-      <c r="C365" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F365" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6">
-      <c r="C366" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F366" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6">
-      <c r="C367" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F367" s="14" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
     </row>
     <row r="368" spans="1:6">
       <c r="C368" s="1" t="s">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="F368" s="14" t="s">
-        <v>245</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="C369" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F369" s="14" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="370" spans="1:6">
-      <c r="C370" s="1" t="s">
-        <v>254</v>
+      <c r="C370" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="F370" s="14" t="s">
-        <v>255</v>
+        <v>125</v>
       </c>
     </row>
     <row r="371" spans="1:6">
-      <c r="C371" s="1" t="s">
-        <v>256</v>
+      <c r="C371" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="F371" s="14" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
     </row>
     <row r="372" spans="1:6">
-      <c r="C372" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F372" s="14" t="s">
-        <v>259</v>
-      </c>
+      <c r="C372" s="3"/>
     </row>
     <row r="373" spans="1:6">
-      <c r="C373" s="1" t="s">
-        <v>260</v>
+      <c r="C373" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="F373" s="14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6">
-      <c r="C375" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" ht="27" thickBot="1">
-      <c r="A378" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="B378" s="33"/>
-      <c r="C378" s="33"/>
-      <c r="D378" s="33"/>
-      <c r="E378" s="33"/>
-      <c r="F378" s="34"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="C374" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F374" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="C376" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F376" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="C377" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F377" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="C378" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F378" s="14" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="379" spans="1:6">
       <c r="C379" s="1" t="s">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c r="F379" s="14" t="s">
-        <v>551</v>
+        <v>328</v>
       </c>
     </row>
     <row r="380" spans="1:6">
-      <c r="C380" s="25"/>
-      <c r="D380" s="25"/>
-      <c r="E380" s="25"/>
-      <c r="F380" s="27"/>
+      <c r="C380" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F380" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="381" spans="1:6">
-      <c r="C381" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="D381" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E381" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F381" s="21" t="s">
-        <v>529</v>
+      <c r="A381" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F381" s="14" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F382" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F383" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F384" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" ht="27" thickBot="1">
+      <c r="A387" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="B387" s="36"/>
+      <c r="C387" s="36"/>
+      <c r="D387" s="36"/>
+      <c r="E387" s="36"/>
+      <c r="F387" s="37"/>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="C388" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F388" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="C389" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F389" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="C390" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F390" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="C391" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F391" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="C392" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F392" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="C393" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F393" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="C394" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F394" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="C395" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F395" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="C396" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F396" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="C397" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F397" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="C398" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F398" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="C400" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F400" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="C401" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F401" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="C402" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F402" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="C403" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F403" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="C405" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" ht="27" thickBot="1">
+      <c r="A408" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="B408" s="36"/>
+      <c r="C408" s="36"/>
+      <c r="D408" s="36"/>
+      <c r="E408" s="36"/>
+      <c r="F408" s="37"/>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="C409" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F409" s="14" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="C410" s="25"/>
+      <c r="D410" s="25"/>
+      <c r="E410" s="25"/>
+      <c r="F410" s="27"/>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="C411" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D411" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E411" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B382" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C382" s="3" t="s">
+      <c r="F411" s="21" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C412" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F382" s="14" t="s">
+      <c r="F412" s="14" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
-      <c r="C384" s="13" t="s">
+    <row r="414" spans="1:6">
+      <c r="C414" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="D384" s="13" t="s">
+      <c r="D414" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E384" s="13" t="s">
+      <c r="E414" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F384" s="15" t="s">
+      <c r="F414" s="15" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
-      <c r="A385" s="1" t="s">
+    <row r="415" spans="1:6">
+      <c r="A415" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B385" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C385" s="8" t="s">
+      <c r="B415" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C415" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="F385" s="14" t="s">
+      <c r="F415" s="14" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
-      <c r="C387" s="1" t="s">
+    <row r="417" spans="1:6">
+      <c r="C417" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D387" s="1" t="s">
+      <c r="D417" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E387" s="1" t="s">
+      <c r="E417" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F387" s="22" t="s">
+      <c r="F417" s="22" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
-      <c r="C388" s="13" t="s">
+    <row r="418" spans="1:6">
+      <c r="C418" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="D388" s="13" t="s">
+      <c r="D418" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E388" s="13" t="s">
+      <c r="E418" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="F388" s="21" t="s">
+      <c r="F418" s="21" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
-      <c r="A389" s="1" t="s">
+    <row r="419" spans="1:6">
+      <c r="A419" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B389" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C389" s="10" t="s">
+      <c r="B419" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C419" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="F389" s="14" t="s">
+      <c r="F419" s="14" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
-      <c r="A390" s="1" t="s">
+    <row r="420" spans="1:6">
+      <c r="A420" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B390" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C390" s="2" t="s">
+      <c r="B420" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C420" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F390" s="14" t="s">
+      <c r="F420" s="14" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
-      <c r="A391" s="1" t="s">
+    <row r="421" spans="1:6">
+      <c r="A421" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B391" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C391" s="12" t="s">
+      <c r="B421" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C421" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="F391" s="14" t="s">
+      <c r="F421" s="14" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
-      <c r="A392" s="1" t="s">
+    <row r="422" spans="1:6">
+      <c r="A422" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B392" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C392" s="12" t="s">
+      <c r="B422" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C422" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F392" s="14" t="s">
+      <c r="F422" s="14" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
-      <c r="A393" s="1" t="s">
+    <row r="423" spans="1:6">
+      <c r="A423" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B393" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C393" s="12" t="s">
+      <c r="B423" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C423" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="F393" s="14" t="s">
+      <c r="F423" s="14" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
-      <c r="A394" s="1" t="s">
+    <row r="424" spans="1:6">
+      <c r="A424" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B394" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C394" s="8" t="s">
+      <c r="B424" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C424" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="F394" s="14" t="s">
+      <c r="F424" s="14" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
-      <c r="A395" s="1" t="s">
+    <row r="425" spans="1:6">
+      <c r="A425" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B395" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C395" s="8" t="s">
+      <c r="B425" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C425" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="F395" s="14" t="s">
+      <c r="F425" s="14" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
-      <c r="A396" s="1" t="s">
+    <row r="426" spans="1:6">
+      <c r="A426" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B396" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C396" s="8" t="s">
+      <c r="B426" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C426" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="F396" s="14" t="s">
+      <c r="F426" s="14" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
-      <c r="A397" s="1" t="s">
+    <row r="427" spans="1:6">
+      <c r="A427" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B397" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C397" s="8" t="s">
+      <c r="B427" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C427" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="F397" s="14" t="s">
+      <c r="F427" s="14" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
-      <c r="C398" s="8"/>
-    </row>
-    <row r="399" spans="1:6">
-      <c r="C399" s="24" t="s">
+    <row r="428" spans="1:6">
+      <c r="C428" s="8"/>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="C429" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D399" s="13" t="s">
+      <c r="D429" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E399" s="13" t="s">
+      <c r="E429" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="F399" s="21" t="s">
+      <c r="F429" s="21" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
-      <c r="A400" s="1" t="s">
+    <row r="430" spans="1:6">
+      <c r="A430" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B400" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C400" s="1" t="s">
+      <c r="B430" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C430" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F400" s="14" t="s">
+      <c r="F430" s="14" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
-      <c r="A401" s="1" t="s">
+    <row r="431" spans="1:6">
+      <c r="A431" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B401" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C401" s="1" t="s">
+      <c r="B431" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C431" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F401" s="14" t="s">
+      <c r="F431" s="14" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
-      <c r="A402" s="1" t="s">
+    <row r="432" spans="1:6">
+      <c r="A432" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B402" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C402" s="1" t="s">
+      <c r="B432" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C432" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F402" s="14" t="s">
+      <c r="F432" s="14" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
-      <c r="G404" s="29"/>
-    </row>
-    <row r="405" spans="1:7">
-      <c r="G405" s="29"/>
-    </row>
-    <row r="406" spans="1:7">
-      <c r="G406" s="29"/>
-    </row>
-    <row r="407" spans="1:7">
-      <c r="G407" s="29"/>
+    <row r="434" spans="7:7">
+      <c r="G434" s="29"/>
+    </row>
+    <row r="435" spans="7:7">
+      <c r="G435" s="29"/>
+    </row>
+    <row r="436" spans="7:7">
+      <c r="G436" s="29"/>
+    </row>
+    <row r="437" spans="7:7">
+      <c r="G437" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A408:F408"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A357:F357"/>
-    <mergeCell ref="A312:F312"/>
-    <mergeCell ref="A265:F265"/>
-    <mergeCell ref="A203:F203"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A157:F157"/>
-    <mergeCell ref="A378:F378"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A387:F387"/>
+    <mergeCell ref="A342:F342"/>
+    <mergeCell ref="A295:F295"/>
+    <mergeCell ref="A233:F233"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A187:F187"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C40" r:id="rId1" xr:uid="{04AE2158-971F-5243-9FF0-01D76E278924}"/>
+    <hyperlink ref="C47" r:id="rId2" xr:uid="{8FEBFFA0-65F0-C94E-A945-BF15764D7B98}"/>
+    <hyperlink ref="C55" r:id="rId3" xr:uid="{CEA14D0A-87C8-274A-9647-A0DB1ECDC68C}"/>
+    <hyperlink ref="C59" r:id="rId4" xr:uid="{FFF8DE63-7BA6-4A43-A6EA-14148CA232CF}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="2" fitToHeight="30" pageOrder="overThenDown" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
